--- a/result/生词本导入模版_6.xlsx
+++ b/result/生词本导入模版_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reassure</t>
+          <t>reactionary</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
+          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
+          <t>reactionary rulers  保守的统治者</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,268 +480,269 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>reap</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>v. 收割，收获： to collect (a crop or natural resource) or to receive as return for effort</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>As you sow, so shall you reap.   唯有付出，才有回报。
+She reaped large profits from her patents.   她的专利给她带来了丰厚的回报。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>reassure</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>rebuff</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>vt. 严词拒绝： to reject or criticize sharply</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>rebuffed an invitation from her colleagues  回绝了同事们的邀请
 She rebuffed him when he asked her fora date.   她拒绝了他约会的邀请。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>recalcitrant</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>adj. 顽抗的，不顺从的： marked by stubborn resistance to and defiance of authority or guidance</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>a recalcitrant teenager  执拗的少年
 The manager worried that the recalcitrant employee would try toundermine his authority.  经理担心那些不听命的员工会削弱它的权威。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>recant</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>vt. 撤回，放弃，改变： to withdraw or repudiate (a statement or belief) formally and publicly</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>recessive</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. （基因等）隐性的，由隐形基因控制的： of, relating to, or designating an allele that does notproduce a characteristic effect when present with a dominant allele
 adj. 内向的，内敛的： not comfortable around people</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a recessive disease  阴性基因控制的疾病
 For such a recessive genius, the most comfortable thing is working alone in his lab.  对 于 这 样 一 个 内向的天才而言，最舒服的事情就是一个人在实验室里干活。</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>recidivate</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vi. 回到原先的习惯，尤指重新犯罪： to return to a previous pattern of behavior, especially to return tocriminal habits</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>The suspect has recidivated for several times.   这个嫌犯是个惯犯了</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>reciprocate</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vi. 往复运动： to move forward and backward alternately
 vt. 报答，回报： to return in kind or degree</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>According to Marx’s economic principle, the average price of a certain product should be reciprocatingover its value.  根据马克思的经济学理论，商品的平均价格应该在它的价值周边波动。
 reciprocated the favor by driving their neighbor to the airport  开车送邻居去机场以还人情</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>reckless</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>adj. 不考虑后果的，大胆鲁莽的： careless of consequences; foolishly adventurous or bold</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>His reckless driving accounted for the accident.  他鲁莽的开车行为导致了这场事故。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>recluse</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>n. 隐士： a person who lives away from others</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>He was sick of cities and crowds, so he decided to go live by himself in the woods as a recluse.   他 厌 倦了城市和拥挤的人群，因此他决定像隐士一样遁隐山林。</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>recoil</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vi. 退却，畏缩： to shrink back, as under pressure or in fear or repugnance</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>recoil from the snake  因为害怕蛇而畏缩不前
 She recoiled from his touch.   她因害怕与他接触而退缩</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>reconcile</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>recondite</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>reconnoiter</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -751,17 +752,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>reconvene</t>
+          <t>reconcile</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
+          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
+          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -773,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rectitude</t>
+          <t>recondite</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>n. 正直： the quality or state of being straight; moral integrity</t>
+          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
+          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -795,17 +796,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>recumbent</t>
+          <t>reconnoiter</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
+          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lying recumbent on the floor  躺在地板上势</t>
+          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -817,17 +818,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>recuperate</t>
+          <t>reconstitute</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
+          <t>vt. 重建，（尤其是通过加水）使复原： to constitute again or anew; to restore to a former condition,especiallyby adding water</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
+          <t>reconstitute dried coffee powder  冲咖啡
+Slowly Jewish communities ravaged by Nazi Germany werereconstituted and life began anew.  被纳粹德国摧残的犹太人社区慢慢得以重建，新的生活开始了。</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -839,17 +841,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>redolent</t>
+          <t>reconvene</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 芳香的： having or emitting fragrance</t>
+          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
+          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -861,19 +863,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>redoubtable</t>
+          <t>rectitude</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor
-adj. 可怕的： arousing fear or awe</t>
+          <t>n. 正直： the quality or state of being straight; moral integrity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-His next opponent would be by far the most redoubtable adversary the young boxer had ever faced.   年轻的拳击手的下一个对手将会是迄今为止他见过的最可怕的敌人</t>
+          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -885,17 +885,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>recumbent</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
+          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
+          <t>lying recumbent on the floor  躺在地板上势</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -907,899 +907,1001 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>recuperate</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>redolent</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adj. 芳香的： having or emitting fragrance</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>redoubtable</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>redundant</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>reel</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>vi. 感到眩晕： to be in a confused state as if from being twirled around
 vi. 蹒跚地走路： to move forward while swaying from side to side</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>My head reeled with the facts and figures.  我的头脑被这些事实和数据给弄晕了。
 His mind reeledupon hearing the news that his employer had been indicted for fraud.  当他听到雇主因为欺诈而被起诉时，他顿觉天旋地转。
 The drunkard reeled down the alley.   醉汉蹒跚地沿着小巷走去</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>referee</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>n. 仲裁者；裁判员： a person who impartially decides or resolves a dispute or controversy
 vt. （就纠纷或争议）给出意见： to give an opinion about (something at issue or in dispute)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>served as the unofficial referee in disputes over the family business  作为一个非官方协调员，解决家庭事务中的纠纷
 Their father usually ends up refereeing any disputes concerning use of the big TV.   最后往往是他们的父亲决定该看什么电视频道，从而解决了相关争执。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>refine</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 提纯，精炼：to free (as metal, sugar, or oil) from impurities or unwanted material
 vt. 改善，改进： to improve or perfect by pruning or polishing</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Oil is refined so as to remove naturally occurring impurities.   原油通过精炼可去除其中天然存在的杂质。
 You’d better refine your backhand before the big tennis match if you want to throne.  如 果 你 想 获 得 冠军的话，你最好在网球大赛开赛前再提升一下反手的技术。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>refractory</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 倔强的，不顺从的： resisting control or authority</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Refractory players will be ejected from the game.   不服从裁判命令的球员将会被驱逐出场。</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>refulgent</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 辉煌的，灿烂的： shining radiantly; resplendent</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Refulgent sunlight broke through the clouds, creating huge swaths of light in the valley below us.  耀眼的阳光穿透了云层，在我们脚下的峡谷中投下了一块巨大的光斑</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>refute</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vt. 否认： to declare not to be true
 vt. 证明为假，证伪： to prove wrong by argument or evidence: show to be false or erroneous</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>While the speak woman was publicly refuting rumors of a merger, behind the scenes the CEO was workingto effect that very outcome.  尽管女发言人一再公开否认合并的谣言，首席执行官却在幕后为这一目标而努力。
 The triumph of Chinese athlete Liu Xiang in the 2004 Olympics effectively refuted the views that Asians arephysically inferior to others.  中国运动员刘翔在 2004 年雅典奥运会上的胜利有效地驳斥了亚洲人在体格上不如其他人种的观点。</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>regenerate</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>vt. 使重获新生，使焕然一新： to bring back to life, practice, activity or a former condition of vigor
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>The lizard is able to regenerate its tail.  蜥 蜴 能 够 重 新 长 出 断 尾 。
 The whole community wasregenerated thanks to a government grant for repairing all the old buildings.   多亏了政府用于维修老楼的专项拨款，整个社区焕然一新。
 Every time he made a mistake, he would promise to regenerate.   每次犯错他都会保证洗心革面，下次不再犯。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>regimen</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>n. （政治上的）统治： lawful control over the affairs of a political unit (as a nation)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>A new party will have regimen over the nation and, hopefully, bring some much-needed change.   一 个 新的政党将要上台，希望他们能带来一些迫切的改革。</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>regress</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vi. 后退： to go back; move backward
 vi. 退化，恶化： to become worse or of less value</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">To stand still is to regress.  不进则退。
 The annual celebration has regressed to the point where it's nothing more than an excuse to get drunk.  </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>rehabilitate</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 使复原，使康复： to restore to a former state (as of efficiency, good management, or solvency) ora healthy condition
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>new policies in hopes of rehabilitating the national economy  被 指 望 能 振 兴 国 家 经 济 的 新 政 策
 Shedecided to undergo physical therapy to help rehabilitate her broken elbow.  她决定采取理疗来治疗受伤的手肘。
 an organization that rehabilitates criminals so they can reenter society  一个让罪犯洗心革面的机构，以便让他们能重返社会</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>rehearsal</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>n. 排练，彩排： the act of practicing in preparation for a public performance</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>reign</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 统治权： the right or means to command or control others</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">A healthy nation should be governed by the reign of law and not by the will of its chief executive.   一 个 健康的国家应该是法制的，而非由最高领导人的意志统领。
 They accused him of carrying out a reign of terror.  </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>rein</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>n. 抑制，限制： the act or practice of keeping something (as an activity) within certain boundaries
 vi. 抑制，控制： to keep from exceeding a desirable degree or level (as of expression)</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The oversight committee called on the corporation to keep a much tighter rein on the activities of itscontractors.   监督委员会要求这个公司对其承包商的行为采取更为严格的管控。
 A good man knows how to rein in his temper.   君子知道如何按捺住火气。</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>reiterate</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>v. 重申： to say or state again</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Let me reiterate our stance.   让我来重述我们的立场。
 I want to reiterate that under no circumstances areyou to leave the house.  我想再次重申：无论如何你都不能离开这间房子。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>rejoice</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>vi. 欣喜，喜悦： to feel joy or great delight</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>We rejoiced over our unexpected victory on the soccer field.  我们为预料之外的足球胜利而感到欢喜。</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>relapse</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>vi. 故态复萌，再犯： to slip or fall back into a former worse state</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>The patient wondered whether his illness would relapse.  病人想知道他的病会不会复发。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>release</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>vt. 排放： to throw or give off本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-vt. 释放，使获得自由： to set free from restraint, confinement, or servitude
-vt. 解雇： to let go from office, service, or employment</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>We bought an air freshener that releases a pleasing scent into the room.   我们买了一个能向房间里释放怡人香味的空气净化机。
-The government was asked to release the prisoners immediately.  政府被要求立即释放囚犯。
-They released the workers who couldn't handle the new technology.   他们解雇了所有不能掌握新技术的工人。</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>vt. 排放： to throw or give off</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>relentless</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>adj. 残酷的，无情的： showing or promising no abatement of severity, intensity, strength, or pace
 adj. 固执的，不肯妥协的： showing no signs of slackening or yielding in one's purpose</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>He was the most teacher enemy I have ever known.  他是我所知的最狠的老师。
 The team's offense was relentless in trying to score.  进攻球员毫不妥协地努力得分。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>relevant</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 有关系的，重要的： having a bearing on or connection with the matter at hand</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Make sure your answers during the interview are short and relevant.   确 保 你 在 面 试 时 的 回 答 简 短 而 恰当。
 You need to bring all the relevant certificates with you.   你需要携带所有的相关证明。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>n. 宗教，信仰： a body of beliefs and practices regarding the supernatural and the worship of one ormore deities
 n. （对于宗教信仰的）忠诚，虔诚： belief and trust in and loyalty to God</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">The Jewish religion has followers in many parts of the globe.  犹太教在全球范围内有大量信徒。
 Without his religion, he would not have been able to survive all the difficulties he has faced over the years.  </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>relinquish</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>vt. 放弃（职位、权力等）： to give up (as a position of authority) formally
 vt. 移交，交出： to give (something) over to the control or possession of another usually underduress</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>She relinquished his position to the company's vice president with very mixed feelings.   怀 着 十 分 复 杂 的情感，她放弃了公司副总裁的职位。
 The boy reluctantly relinquished the illegal fireworks to the police officer.   小男孩不情愿地把非法的焰火交给了警察。
 The court ordered him to relinquish custody of his child.   法庭要求他交出孩子的监护权。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>relish</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>n. 喜好，偏好： an appetite for something; a strong appreciation or liking
 n. （愿望达成时的）高兴，满足感： the feeling experienced when one's wishes are met
 vt. 享受，喜欢： to take keen or zestful pleasure in</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>She has great relish for early morning walks, which she takes nearly every day.  她 对 早 晨散 步 有格 外的喜好——几乎每天早上她都会如此。
 He ate the bowl of ice cream with relish.   他高兴地吃着冰淇淋。
 He is so hungry that he will relish even plain food.   他是如此的饥饿，以至于普通的食物也能让他满意。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>reluctant</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>adj. 不情愿的，反感的： feeling or showing aversion, hesitation, or unwillingness</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>I'm reluctant to let him borrow my CDs since he never gives back anything I lend him.   我 很 不 愿 意 把 我的 CD  借给他，因为他借了我东西从来不还。</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>remiss</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 疏忽的，不留心的： exhibiting carelessness or slackness</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>I would be remiss if I didn't tell you how much I appreciated the lovely gift.   如果我不告诉你我是多么的喜欢这个可爱的礼物的话，那我就太疏忽大意了。</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>remodel</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>vt. 改造，改变结构： to alter the structure of</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>We decided to remodel the warehouse into a museum displaying the products of the company.   我 们 决定把仓库改造成展览我们公司产品的博物馆。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>remonstrance</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>n. 抗议，抱怨： an expression of protest, complaint, or reproof, especially a formal statement ofgrievances</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>She seems deaf to her son’s remonstrances.   她似乎对儿子的抗议充耳不闻。
 Aggravated by the noisymetro construction, many residents wrote letters of remonstrance to city officials.   许多被地铁建设的噪音激怒的居民向市政府投去了抗议信。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>remorse</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>n. 懊悔，悔恨： moral anguish arising from repentance for past misdeeds; bitter regret</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>He felt a deep remorse for having neglected his family over the years.  他为多年来忽略家人的行为表示懊悔。</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>remunerate</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>vt. 支付报酬或补偿： to pay an equivalent to for a service, loss, or expense</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>He promptly remunerated the repair company for fixing the satellite TV.   他迅速地支付了维修公司修卫星电视所应得的酬劳。</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>rend</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>vt. 撕裂，猛拉： to tear or split apart or into pieces violently</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Wolves rend a game to pieces.   狼群会把猎物撕成碎片。
 pain that rends the heart  撕心般的痛</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>renegade</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>n. 背教者，叛徒： one who rejects a religion, cause, allegiance, or group for another; a deserter</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A band of renegades who had deserted their infantry units were making their way to Mexico.  一 支 背叛了他们所属的步兵编队的士兵朝着墨西哥前进。</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>renounce</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. （正式地）放弃： to give up, refuse, or resign usually by formal declaration
 vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>renounce his nationality  退出国籍
 renounce the authority of the church  宣布与教廷彻底决裂</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>renovate</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>vt. 修复，维修： to restore to a former better state (as by cleaning, repairing, or rebuilding)
 vt. 使重获新生，使焕然一新：to bring back to life, practice, activity or a former condition of vigor</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>We will have to renovate the house extensively before we can move in.   在入住之前我们必须大规模翻修一下这栋房子。
 The church was renovated by a new ecumenical spirit.   新的宗教领袖的到来让教堂焕发新生。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>repartee</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>n. 机智的回答： a quick witty response
 n. 打趣，善意的玩笑： good-natured teasing or exchanging of clever remarks</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>That repartee to the reporter's question drew laughs from the bystanders.   对记者问题的那个机智回答引来了旁观者的笑声。
 Repartee is harder to do with text messaging.   用短信开起玩笑来困难多了。</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>repatriate</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>vt. 遣返： to restore or return to the country of origin, allegiance, or citizenship</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>As soon as the war ends, the government will start to repatriate war refugees.   只要战争一结束，政府就会开始遣返战争难民。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>repeal</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>vt. 撤销，废除（法律等）： to rescind or annul by authoritative act
 vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>The company called the furniture store to repeal the order for six new desks.   公司要求家具店撤销六张新桌子的订单。
 In 1933, Congress passed the 21st Amendment which repealed the Prohibition Amendment of1919, thus making the sale, distribution, and use of alcohol legal once again.   1933 年，国会通过了《第二十一修正案》，该法案废除了于 1919 年制订的《禁酒法》，从而使得酒的买卖、配送和使用再次合法化。
 If I find that you have been lying about this, I'll instantly repeal every promise I made to you.   只 要 我 发 现在这个问题上你对我撒了谎，那我们之间的承诺就彻底断裂了。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>repel</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 抵制： to fight against; resist
 vt. 使厌恶： to cause aversion in: disgust</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Self-discipline ensures that you can repel the things that induce you.   自律可以保证你抵制那些诱惑你的事物。
 I repelled the temptation to stay out late and call in sick the next day.  我抵住了晚上玩通宵然后第二天谎称生病的诱惑。
 Evil odors always repel me.   臭味总是让我恶心。</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>repertoire</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>n. （技术、设备或原料等的）详单： the complete list or supply of skills, devices, or ingredients usedin a particular field, occupation, or practice</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>The chef's repertoire of specialties seems to be limited, with several of the dishes appearing over and overagain in slightly varied guises.   这个厨师的所有拿手好戏看来是很有限的，因为上来的几盘菜看起来只是稍微换了一下装饰而已。</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>repine</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>vi. 抱怨，表达不满： to feel or express discontent or dejection</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>There is no use repining over a love that's been long lost.   抱怨早已失去的爱情是没有用的。</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>replete</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>adj. 彻底吃饱了的： having one's appetite completely satisfied
 adj. 充满…的，富于…的： possessing or covered with great numbers or amounts of somethingspecified</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Everyone is completely replete after the huge meal.  在大餐之后，每个人都吃撑了。
 a scholar replete with knowledge  博学的学者</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>repose</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>n. （劳作后的）休息： a state of resting after exertion or strain
 n. 平静，宁静： a state of freedom from storm or disturbance
@@ -1807,7 +1909,7 @@
 vt. 放置，交给他人： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>The doctor ordered a period of repose for the patient suffering from insomnia.   医生要求正在饱受失眠折磨的病人好好休息一阵。
 We enjoyed the repose of a summer evening on a remote island.  我们在遥远的小岛上共享了夏日傍晚的片刻安宁。
@@ -1815,111 +1917,111 @@
 The Constitution reposes the power to declare war to Congress, and to that body alone.  宪 法 将 宣 战的权力交给了国会单独保管。</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>reprehend</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>vt. 谴责，责难，批评： to express one's unfavorable opinion of the worth or quality of</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Without exception, book reviewers reprehended the novel's trite plot.   毫无例外的，小说缺乏新意的故事情节收到了评论家们的责难。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>repress</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vt. 镇压： to put down by force, usually before total control has been lost; quell
 vt. 阻止（正常的表达、活动或发展等）： to prevent the natural or normal expression, activity, ordevelopment of</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Military quickly repressed the rebellion in the city and restored order.   军方迅速平息了市内的暴乱，恢复了秩序。
 You can't repress your feelings forever, so tell her that you love her.   你不可能永远压抑自己的感受，所以大胆地跟她表白吧。</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>reprieve</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>vt. 暂缓处刑，免罪： to postpone or cancel the punishment of</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Fourteen people, waiting to be hanged for the murder of a former prime minister, have been reprieved</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>reproach</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 令人羞愧的事物，耻辱： one that causes shame, rebuke or blame
 vt. 批评，责备： to express disapproval, criticism, or disappointment in (someone)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a reproach to this entire school  整个学校的耻辱
 reproached by their mother for untidiness  因为邋遢而被他们的母亲批评</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>reprobate</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 堕落者，道德败坏的人：a morally unprincipled person
 adj. 堕落的，放荡的： morally corrupt
@@ -1927,7 +2029,7 @@
 vt. 拒绝，不提供： to be unwilling to grant</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>The program rehabilitates reprobates and turns them into hard-working, law-abiding citizens.  这 个 项目让那些堕落的人改过自新，并将他们变成勤劳守法的好公民。
 He is a reprobate judge who could be bribed, and often with astonishing ease.   他是一个堕落的法官，极其容易就被贿赂了。
@@ -1935,297 +2037,189 @@
 The government will most likely reprobate the request for parole.  政府很有可能会拒绝假释的要求。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>reproof</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>n. 批评，反对： criticism for a fault, rebuke</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>The head teacher speaks in tones of gentle reproof.  校长的话语中带有隐晦的批评。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>reprove</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>vt. 温和地责备，警告： to scold or correct usually gently or with kindly intent
 vt. 不欣赏，不喜欢： to hold an unfavorable opinion of</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>My piano teacher often reproves me for slouching while playing, observing that good posture helps oneplay better.   我的钢琴老师常常会因为懒散的坐姿而批评我，他认为良好的坐姿能让我弹得更好。
 The older generation has always reproved the younger generation's taste in music.  老 一 代 的 人 总 是不喜欢新一代的音乐品味。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>repudiate</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>vt. 否认： to declare not to be true
 vt. 拒绝接受： to show unwillingness to accept, do, engage in, or agree to</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>She repudiated the charge that she had lied on her résumé.   她否认了她在简历中作假的指控。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>repugnant</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>adj. 令人厌恶的： arousing disgust or aversion
 adj. 不和谐的，不协调的： not being in agreement or harmony</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>The idea of moving again became repugnant to her.  又要搬家的想法让她感到厌恶。
 Technically speaking, it may not be a violation, but it is certainly repugnant to the spirit of the law.  技术上来说这还算不上违法，但是这肯定违背了法律的精神。</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>repulse</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>vt. （使）厌恶，排斥： to rebuff or reject with rudeness, coldness, or denial</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>The scenes of violence in the film may repulse some viewers.   电影中某些暴力场景可能会使观众反感。</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>repute</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>n. （尤指好的）名声，名誉： a good reputation</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Before his national bestseller, he was a writer of little repute.  在他的畅销书出来之前，他是个没什么名声的作家。</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>requite</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>vt. 酬谢，报答： to make repayment or return for
-vt. 报仇： to punish in kind the wrongdoer responsible for</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>requited her love with hatred  恩将仇报Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-The future writer would later requite the abuse he suffered at the hands of his classmates by creatingscathing portraits of them in his novels.   未来的作家会把在同学那受的委屈的帐算清的——他会在小说中把他们描绘成恶人。</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>vt. 酬谢，报答： to make repayment or return for</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>requited her love with hatred  恩将仇报</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>requisite</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>n. 必需品： something necessary, indispensable, or unavoidable
 adj. 必不可少的，必备的： essential, necessary</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Calculus is a requisite for modern physics.  微积分是学习近代物理的必要知识。
 Oxygen is requisite for human to survive.   氧气是维持人类生命的必要条件。</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>rescind</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>vt. 废除，取消： to make void</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>reserved</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 内向的，缄默的： restrained in words and actions</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>residue</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>resign</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>resigned her position at the university  自动放弃她在大学的职位</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>resilience</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2235,17 +2229,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>resolute</t>
+          <t>rescind</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 坚定的： marked by firm determination</t>
+          <t>vt. 废除，取消： to make void</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
+          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2257,17 +2251,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>resonant</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
+          <t>adj. 内向的，缄默的： restrained in words and actions</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
+          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2279,17 +2273,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>resourceful</t>
+          <t>residue</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
+          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
+          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2301,220 +2295,212 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>resign</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>resigned her position at the university  自动放弃她在大学的职位</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>resilience</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>resolute</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 坚定的： marked by firm determination</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>resonant</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>resourceful</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>respite</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 间歇，休息： an interval of rest or relief</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>to toil without respite  埋头苦干
 In the middle of each semester there came a short respite.   在 每 个学期的期中，会有一个短暂的休假。</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>respire</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>vi. 呼吸： to inhale and exhale air successivelyMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>unable to respire due to heart attack  因心脏病发作而无法呼吸</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>vi. 呼吸： to inhale and exhale air successively</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>resplendent</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>adj. 华丽辉煌的： shining brilliantly</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Geography teacher showed us a picture of the resplendent aurora borealis.   地理老师给我们展示了一张壮丽的北极光的照片。</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>responsive</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>adj. 敏感的： quick to respond or react appropriately or sympathetically</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Children are often the most responsive members of the audience.  儿童通常是观众中最为敏感的群体</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>restive</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 急躁的，忧虑的： marked by impatience or uneasiness
 adj. 难以管束的： stubbornly resisting control</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>I spent a restive night worrying about the next day's exam.   我度过了忧虑的一晚，担心明天的考试。
 Tired soldiers grew restive.   疲惫的士兵变得越来越难以管理。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>restless</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>restrain</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>resurgence</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>resuscitate</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>retainer</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>n. 家仆： a person attached or owing service to a household</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2524,17 +2510,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>retaliate</t>
+          <t>restless</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
+          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
+          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2546,17 +2532,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>retard</t>
+          <t>restrain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
+          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
+          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2568,17 +2554,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>retinue</t>
+          <t>resurgence</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 随行人员： a group of retainers or attendants</t>
+          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
+          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2590,131 +2576,131 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>resuscitate</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>retainer</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>n. 家仆： a person attached or owing service to a household</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>retaliate</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>retard</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>retinue</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>n. 随行人员： a group of retainers or attendants</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>reticent</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 沉默不语的： inclined to be silent or uncommunicative in speech
 adj. 不愿意的： slow to begin or proceed with a course of action because of doubts or uncertainty</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>He was reticent about his plans.   他对他的计划三缄其口。
 Understandably, she's reticent about becoming involved with another religious sect.  不难理解，她不愿意被牵扯另一个宗教派别之中。</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>retort</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>retouch</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>retract</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>vt. 收回，否认： to take back</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>retrench</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>vi. 削减开支： to curtail expenses</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>retribution</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2724,405 +2710,403 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>retort</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>retouch</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>retract</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>vt. 收回，否认： to take back</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>retrench</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>vi. 削减开支： to curtail expenses</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>retribution</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>retrograde</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>adj. 倒退的： moving or tending backward
 v. 退步，退化： to decline to a worse condition</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>This is a retrograde step and you will regret it.   这是后退的一步，你以后肯定会后悔的。
 The Dark Ages is the period following the fall of the Roman Empire when Western civilization seriouslyretrograded.   “黑暗时代”指的是罗马帝国崩溃之后，西方文明严重退步的一个历史时期。</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>retrospective</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>adj. 回顾的： looking back on, contemplating, or directed to the past</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>a retrospective glance at my youth  朝我少年时代投去的回顾性一瞥</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>revelry</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>n. 狂欢，喧闹的作乐： noisy partying or merrymaking</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>They were exhausted after the night of revelry.  一夜狂欢后大家都筋疲力尽</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>revenge</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. 报复，复仇： an act or instance of retaliating in order to get even
 vt. 复仇： to avenge (as oneself) usually by retaliating in kind or degree</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Both sides were determined to get revenge for losses and showed little interest in ending the feud.   双方都下定决心要为失去的东西报仇，对于结束他们之间的世仇毫无兴趣。
 The bombing was in revenge for theassassination of their leader.  此次轰炸是对暗杀他们领袖的报复行动。
 He finally revenged the death of his brother.   他终于为兄弟的死报了仇。</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>revere</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>vt. （尤指对神的）尊崇，尊敬： to offer honor or respect to (someone) as a divine power</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>He is revered for his valor.   他 因 为 他 的 英 勇 而 受 到 尊 敬 。
 In some cultures people revere theirancestors, even leaving food offerings for them.   在一些文化当中，人们非常敬重先人，甚至将一些食物留下来供他们享用。</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>revise</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>vt. 更改，修正： to look over again in order to correct or improve</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>There are many problems involved in revising a dictionary.   修正字典会牵涉到诸多问题。
 With the snow,we'll need to revise our travel plans.   因为下雪了，我们不得不更改旅游计划。</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>revive</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>vi. 恢复意识： to return to consciousness or life, become flourishing again
 v. 再获新生： become active or flourishing again</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>successfully revived him with artificial respiration  用人工呼吸使成功他恢复意识
 Around midnight, I usually need to revive myself with a cup of strong coffee.   在午夜时分，我需要一杯浓咖啡来提神。
 The success of the movie has revived her career.   这部电影的成功让他的事业焕发第二春。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>revoke</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>vt. 撤回，宣告无效： to annul by recalling or taking back</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>to revoke a will  废除遗嘱</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>revolt</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. 使厌恶，反感： to fill with disgust or abhorrence
 vi. 反叛： to renounce allegiance or subjection (as to a government)</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>The smell of seafood revolts him.  他对海鲜的腥味十分反感。
 The revolted against the dictator by burning his palace.   他们通过焚烧宫殿来对抗独裁者。</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>ribald</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>adj. 举止、言语下流粗俗的： characterized by or indulging in vulgar, lewd humor</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>entertained the guests with ribald jokes  用荤段子来取悦客人</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>rickety</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>adj. 不稳的： lacking stability or firmness</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>The rickety coalition may break at any moment.   脆弱的联盟随时都可能破裂。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>rider</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 骑马的人： one that rides
 n. 附件： a clause appended to a legislative bill to secure a usually distinct object</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>ridicule</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>vt. 嘲笑： to make fun of</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>always ridiculed everything she said  总是嘲笑她说的话
 The term “big bang theory” was originallycoined to ridicule the belief that the universe was created by a giant explosion.  “大爆炸理论”期初是为了嘲笑一种观点而创造的，这种观点认为宇宙源自一场巨大的爆炸。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>rife</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>rift</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>n. 离间： a break in friendly relations
-vt. 使开裂： to cause to split open or break</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>a rift between two once allied nations  两个往昔盟国的决裂
-Hills were rifted by the earthquake.   地震使得山崩地裂</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>rile</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>vt. 刺激，惹怒： to make agitated and angry</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ripen</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Age ripens a good wine.  时间酿出好酒</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>riot</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3132,17 +3116,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rite</t>
+          <t>rife</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
+          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>the marriage rites  婚礼仪式的章程</t>
+          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3154,19 +3138,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rive</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Lightning rived the tree.   闪电把树劈裂了</t>
-        </is>
-      </c>
+          <t>rift</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3176,17 +3152,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>riveting</t>
+          <t>rile</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
+          <t>vt. 刺激，惹怒： to make agitated and angry</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
+          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3198,17 +3174,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>rivulet</t>
+          <t>ripen</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n. 小河，小溪： a small stream</t>
+          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Dream Rivulet Diary《梦溪笔谈》</t>
+          <t>Age ripens a good wine.  时间酿出好酒</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3220,17 +3196,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>robust</t>
+          <t>riot</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
+          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
+          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3242,592 +3218,589 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>rite</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>the marriage rites  婚礼仪式的章程</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>rive</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Lightning rived the tree.   闪电把树劈裂了</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>riveting</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>rivulet</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>n. 小河，小溪： a small stream</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Dream Rivulet Diary《梦溪笔谈》</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>roil</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 搅浑，使混乱： to stir up; disorder
 vt. 激怒： to displease or disturb</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>He roiled the brook with his wood stick.   他用他的木棍将溪水搅浑。
 Financial markets have beenroiled by the banking crisis.  银行业的危机搅乱了金融市场的秩序。
 Some of his roommate’s habits began to roil him.   他室友的某些习惯开始让他恼火。</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>roisterer</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>n. 喝酒喧闹的人： one who engages in merrymaking especially in honor of a special occasion</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>the rowdy roisterers who fill the streets of New Orleans during Mardi Gras  四旬斋前最后一天遍布新奥尔良各条街道的喧闹人群</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rookie</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>n. 新兵；新手；菜鸟： recruit; novice</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>The rookie replaced the injured regular at first base.  这个新手代替了受伤的一垒手。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>roster</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>n. 值勤表，花名册： a roll or list of personnel</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>the roster of subscribers to the journal  杂质订阅者名册</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>rostrum</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>n. 讲坛，演讲坛： a stage for public speaking</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>He finally stood on the winner's rostrum.   他终于站在了胜利者的领奖台上。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>rouse</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>v. 激起，煽动： to stir up
 v. 唤醒： to cause to stop sleeping</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>He was roused to fury.   他大为光火。
 The piercing siren roused her from a deep sleep  刺耳的警笛声将她从沉睡中唤醒。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>royalty</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>n. 皇家身份： regal character or bearing
 n. 版税： a payment to an author or composer for each copy of a work sold or to an inventor for eachitem sold under a patent</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>charge KTV owners royalty fee  向 KTV  索取版权费</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>rubicund</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 红润的，健康的： inclined to a healthy rosiness</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>A rubicund complexion indicates good health.   红润的气色意味着健康的身体。</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>rudimentary</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>adj. 初始的，未发展的： being in the earliest stages of development
 adj. 最根本的，基础的： consisting in first principles: fundamental</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>The equipment of these past empire-builders was rudimentary.   过去这些帝国的建造者们使用的都是极其原始的工具。
 The dropout had only a rudimentary knowledge of science.   这个辍学的孩子对科学知识只有最基本的一些了解。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>rue</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>n. 后悔，遗憾： the feeling of regret, remorse, or sorrow for</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>With rue my heart is laden.   我的内心充满了遗憾。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>ruffle</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>n. 皱褶，褶裥花边： a strip of fabric gathered or pleated on one edge
 vt. 使粗糙： to destroy the smoothness or evenness of
 vt. 扰乱，打扰：to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>The acid ruffled the surface of the catalyst.  酸使得催化剂的表面变得粗糙。
 The stream of minor complaints finally ruffled him into snapping, “If you don’t like the way I’m doing it, do ityourself!”一系列的抱怨终于让他爆发：“如果你不喜欢我做事的方法，你就自己去做！”</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>ruminate</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>vt. 沉思： to go over in the mind repeatedly and often casually or slowly</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>ruminated the reason past failures  沉思以往失败的原因</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>rumple</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>vt. 使皱，弄皱： to wrinkle or form into folds or creases
 vt. 打乱，使不整齐： to undo the proper order or arrangement of</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>The guest rumpled the antique bedspread by sitting on it.   客人坐在古董床单上把它弄皱了。
 The aunt would invariably rumple the little boy's hair whenever she came to visit.   不论小男孩的姨妈何</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>run</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. （不间断的）连续演出： an unbroken course of performances or showings</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>The play had a long run.  此剧一口气演了很长时间</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>runic</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 神秘的： having some secret or mysterious meaning</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>painstaking efforts to decipher the runic inscriptions  为破解神秘的碑文付出的辛勤劳动</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>rupture</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>v. 打破；打碎： to part by violence</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Jealousy ruptured our friendly relationship.  嫉妒心破坏了我们的友谊。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>ruse</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>n. 诡计： a wily subterfuge</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>This was a ruse to divide them.   这是一招反间计。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>rustic</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 乡下人，头脑简单的人： an awkward or simple person especially from a small town or the country
-adj. 乡村的：of, relating to, associated with, or typical of open areas with few buildings or people
-adj. 粗俗的： lacking in social graces or polish</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
+adj. 乡村的：of, relating to, associated with, or typical of open areas with few buildings or people</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>a rustic who was awed by the prices that city dwellers had to pay  一个被大城市房价所吓到的乡里人
 We went to a rustic area that is devoid of skyscrapers and shopping malls.  我们去了一个没有摩天大楼和购物中心的乡村原野。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>rustle</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>v. 快速地行动： to move or act energetically or with speed; to proceed or move quickly</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>The little boy rustled around enthusiastically on the first morning of the trip.  旅行的第一个早晨，小男孩充满热情地在那活蹦乱跳。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>sabotage</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>n. 妨害，破坏： treacherous action to defeat or hinder a cause or an endeavor; deliberate subversion
 vt. 从事破坏活动，阻止：to practice sabotage on</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>sabotage of the project by government officials  被政府官员阻止的项目
 He sabotaged his opponent's campaign with rumors.   他用谣言来破坏对手的竞选活动。
 My ex-wifedeliberately sabotages my access to the children.   我的前妻故意想方设法阻止我和我的孩子们见面。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>saccharine</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 像糖一样的，有甜味的： of, relating to, or resembling that of sugar
 adj. 做作的，矫情的： appealing to the emotions in an obvious and tiresome way</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>a powdery substance with a saccharine taste  有甜味的粉状物质
 The movie was funny, but it had a saccharine ending in which everyone lives happily ever after.   电 影 还是很有意思的，但是结局太做作了——所有人从此都幸福地生活在了一起。</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>sacrilege</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>saddle</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>vt. 使某人负担： to load or burden</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>sage</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>salient</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>adj. 显著的，最突出的： standing out conspicuously</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>salubrious</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>adj. 有益健康的： favorable to or promoting health or well-being</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Every year I go to Kunming to enjoy its cool and salubrious climate.   每年我都会去昆明享受它那凉爽宜人的气候。</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>salutary</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>adj. 有益健康的： beneficial, promoting health
-adj. 有利的，利好的： promoting or contributing to personal or social well-being</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>a salutary warning  善意的警告
-The low interest rates should have a salutary effect on business.   低利率对于商业而言应该是有利的。</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3837,19 +3810,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>salutation</t>
+          <t>sacrilege</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 致敬，打招呼（表示欢迎和礼貌）： a polite expression of greeting or goodwill
-n. 表扬： a formal expression praise</t>
+          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>The veteran stepped forward, raising his hand in salutation.   老兵向前一步，举起手致敬。
-The speaker introduced the evening's honored guest with a lavish salutation.   主持人用大量表扬的话介绍了今晚的嘉宾。</t>
+          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3861,17 +3832,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>salvage</t>
+          <t>saddle</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>v. （从灾难中）抢救： to save from loss or destruction</t>
+          <t>vt. 使某人负担： to load or burden</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>salvaged the torpedoed vessel  拯救被鱼雷击中的舰艇</t>
+          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3883,20 +3854,88 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>salve</t>
+          <t>safeguard</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>v. 减轻，缓解： quiet, assuage</t>
+          <t>n. 保护措施： a technical contrivance to prevent accident
+v. 保护： to make safe: protect</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>The company give him a raise in salary to salve his feelings.  公司决定给他加薪以安抚他的感情</t>
+          <t>legal safeguards against fraud  防止欺诈的法律措施
+sheepdogs safeguard the flock from attacks by wolves  保护兽群免受狼群攻击的牧羊犬</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>sage</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>salient</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>adj. 显著的，最突出的： standing out conspicuously</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>salubrious</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>adj. 有益健康的： favorable to or promoting health or well-being</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Every year I go to Kunming to enjoy its cool and salubrious climate.   每年我都会去昆明享受它那凉爽宜人的气候。</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_6.xlsx
+++ b/result/生词本导入模版_6.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>reactionary</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reactionary rulers  保守的统治者</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reactionary</t>
+          <t>ream</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
+          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>reactionary rulers  保守的统治者</t>
+          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +468,18 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ream</t>
+          <t>reap</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
+          <t>v. 收割，收获： to collect (a crop or natural resource) or to receive as return for effort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
+          <t>As you sow, so shall you reap.   唯有付出，才有回报。
+She reaped large profits from her patents.   她的专利给她带来了丰厚的回报。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,18 +491,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>reap</t>
+          <t>reassure</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>v. 收割，收获： to collect (a crop or natural resource) or to receive as return for effort</t>
+          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>As you sow, so shall you reap.   唯有付出，才有回报。
-She reaped large profits from her patents.   她的专利给她带来了丰厚的回报。</t>
+          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,17 +513,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>reassure</t>
+          <t>rebuff</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
+          <t>vt. 严词拒绝： to reject or criticize sharply</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
+          <t>rebuffed an invitation from her colleagues  回绝了同事们的邀请
+She rebuffed him when he asked her fora date.   她拒绝了他约会的邀请。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,18 +536,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rebuff</t>
+          <t>recalcitrant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vt. 严词拒绝： to reject or criticize sharply</t>
+          <t>adj. 顽抗的，不顺从的： marked by stubborn resistance to and defiance of authority or guidance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rebuffed an invitation from her colleagues  回绝了同事们的邀请
-She rebuffed him when he asked her fora date.   她拒绝了他约会的邀请。</t>
+          <t>a recalcitrant teenager  执拗的少年
+The manager worried that the recalcitrant employee would try toundermine his authority.  经理担心那些不听命的员工会削弱它的权威。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -570,18 +559,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>recalcitrant</t>
+          <t>recant</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 顽抗的，不顺从的： marked by stubborn resistance to and defiance of authority or guidance</t>
+          <t>vt. 撤回，放弃，改变： to withdraw or repudiate (a statement or belief) formally and publicly</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a recalcitrant teenager  执拗的少年
-The manager worried that the recalcitrant employee would try toundermine his authority.  经理担心那些不听命的员工会削弱它的权威。</t>
+          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -593,17 +581,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>recant</t>
+          <t>recessive</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vt. 撤回，放弃，改变： to withdraw or repudiate (a statement or belief) formally and publicly</t>
+          <t>adj. （基因等）隐性的，由隐形基因控制的： of, relating to, or designating an allele that does notproduce a characteristic effect when present with a dominant allele
+adj. 内向的，内敛的： not comfortable around people</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。</t>
+          <t>a recessive disease  阴性基因控制的疾病
+For such a recessive genius, the most comfortable thing is working alone in his lab.  对 于 这 样 一 个 内向的天才而言，最舒服的事情就是一个人在实验室里干活。</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -615,19 +605,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>recessive</t>
+          <t>recidivate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj. （基因等）隐性的，由隐形基因控制的： of, relating to, or designating an allele that does notproduce a characteristic effect when present with a dominant allele
-adj. 内向的，内敛的： not comfortable around people</t>
+          <t>vi. 回到原先的习惯，尤指重新犯罪： to return to a previous pattern of behavior, especially to return tocriminal habits</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a recessive disease  阴性基因控制的疾病
-For such a recessive genius, the most comfortable thing is working alone in his lab.  对 于 这 样 一 个 内向的天才而言，最舒服的事情就是一个人在实验室里干活。</t>
+          <t>The suspect has recidivated for several times.   这个嫌犯是个惯犯了</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,17 +627,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>recidivate</t>
+          <t>reciprocate</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vi. 回到原先的习惯，尤指重新犯罪： to return to a previous pattern of behavior, especially to return tocriminal habits</t>
+          <t>vi. 往复运动： to move forward and backward alternately
+vt. 报答，回报： to return in kind or degree</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The suspect has recidivated for several times.   这个嫌犯是个惯犯了</t>
+          <t>According to Marx’s economic principle, the average price of a certain product should be reciprocatingover its value.  根据马克思的经济学理论，商品的平均价格应该在它的价值周边波动。
+reciprocated the favor by driving their neighbor to the airport  开车送邻居去机场以还人情</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,19 +651,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>reciprocate</t>
+          <t>reckless</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vi. 往复运动： to move forward and backward alternately
-vt. 报答，回报： to return in kind or degree</t>
+          <t>adj. 不考虑后果的，大胆鲁莽的： careless of consequences; foolishly adventurous or bold</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>According to Marx’s economic principle, the average price of a certain product should be reciprocatingover its value.  根据马克思的经济学理论，商品的平均价格应该在它的价值周边波动。
-reciprocated the favor by driving their neighbor to the airport  开车送邻居去机场以还人情</t>
+          <t>His reckless driving accounted for the accident.  他鲁莽的开车行为导致了这场事故。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -685,17 +673,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>reckless</t>
+          <t>recluse</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adj. 不考虑后果的，大胆鲁莽的： careless of consequences; foolishly adventurous or bold</t>
+          <t>n. 隐士： a person who lives away from others</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>His reckless driving accounted for the accident.  他鲁莽的开车行为导致了这场事故。</t>
+          <t>He was sick of cities and crowds, so he decided to go live by himself in the woods as a recluse.   他 厌 倦了城市和拥挤的人群，因此他决定像隐士一样遁隐山林。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -707,17 +695,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>recluse</t>
+          <t>recoil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>n. 隐士： a person who lives away from others</t>
+          <t>vi. 退却，畏缩： to shrink back, as under pressure or in fear or repugnance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>He was sick of cities and crowds, so he decided to go live by himself in the woods as a recluse.   他 厌 倦了城市和拥挤的人群，因此他决定像隐士一样遁隐山林。</t>
+          <t>recoil from the snake  因为害怕蛇而畏缩不前
+She recoiled from his touch.   她因害怕与他接触而退缩</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -729,18 +718,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>recoil</t>
+          <t>reconcile</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vi. 退却，畏缩： to shrink back, as under pressure or in fear or repugnance</t>
+          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>recoil from the snake  因为害怕蛇而畏缩不前
-She recoiled from his touch.   她因害怕与他接触而退缩</t>
+          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -752,17 +740,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>reconcile</t>
+          <t>recondite</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
+          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
+          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -774,17 +762,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>recondite</t>
+          <t>reconnoiter</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
+          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
+          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -796,17 +784,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>reconnoiter</t>
+          <t>reconstitute</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
+          <t>vt. 重建，（尤其是通过加水）使复原： to constitute again or anew; to restore to a former condition,especiallyby adding water</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
+          <t>reconstitute dried coffee powder  冲咖啡
+Slowly Jewish communities ravaged by Nazi Germany werereconstituted and life began anew.  被纳粹德国摧残的犹太人社区慢慢得以重建，新的生活开始了。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -818,18 +807,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>reconstitute</t>
+          <t>reconvene</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vt. 重建，（尤其是通过加水）使复原： to constitute again or anew; to restore to a former condition,especiallyby adding water</t>
+          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>reconstitute dried coffee powder  冲咖啡
-Slowly Jewish communities ravaged by Nazi Germany werereconstituted and life began anew.  被纳粹德国摧残的犹太人社区慢慢得以重建，新的生活开始了。</t>
+          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -841,17 +829,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reconvene</t>
+          <t>rectitude</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
+          <t>n. 正直： the quality or state of being straight; moral integrity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
+          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -863,17 +851,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>rectitude</t>
+          <t>recumbent</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 正直： the quality or state of being straight; moral integrity</t>
+          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
+          <t>lying recumbent on the floor  躺在地板上势</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -885,17 +873,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>recumbent</t>
+          <t>recuperate</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
+          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lying recumbent on the floor  躺在地板上势</t>
+          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -907,17 +895,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>recuperate</t>
+          <t>redolent</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
+          <t>adj. 芳香的： having or emitting fragrance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
+          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -929,17 +917,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>redolent</t>
+          <t>redoubtable</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 芳香的： having or emitting fragrance</t>
+          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
+          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -951,17 +939,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>redoubtable</t>
+          <t>redundant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor</t>
+          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现</t>
+          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -973,44 +961,46 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>reel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>reel</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
         <is>
           <t>vi. 感到眩晕： to be in a confused state as if from being twirled around
 vi. 蹒跚地走路： to move forward while swaying from side to side</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>My head reeled with the facts and figures.  我的头脑被这些事实和数据给弄晕了。
 His mind reeledupon hearing the news that his employer had been indicted for fraud.  当他听到雇主因为欺诈而被起诉时，他顿觉天旋地转。
 The drunkard reeled down the alley.   醉汉蹒跚地沿着小巷走去</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>referee</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>n. 仲裁者；裁判员： a person who impartially decides or resolves a dispute or controversy
+vt. （就纠纷或争议）给出意见： to give an opinion about (something at issue or in dispute)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>served as the unofficial referee in disputes over the family business  作为一个非官方协调员，解决家庭事务中的纠纷
+Their father usually ends up refereeing any disputes concerning use of the big TV.   最后往往是他们的父亲决定该看什么电视频道，从而解决了相关争执。</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1020,19 +1010,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>referee</t>
+          <t>refine</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>n. 仲裁者；裁判员： a person who impartially decides or resolves a dispute or controversy
-vt. （就纠纷或争议）给出意见： to give an opinion about (something at issue or in dispute)</t>
+          <t>vt. 提纯，精炼：to free (as metal, sugar, or oil) from impurities or unwanted material
+vt. 改善，改进： to improve or perfect by pruning or polishing</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>served as the unofficial referee in disputes over the family business  作为一个非官方协调员，解决家庭事务中的纠纷
-Their father usually ends up refereeing any disputes concerning use of the big TV.   最后往往是他们的父亲决定该看什么电视频道，从而解决了相关争执。</t>
+          <t>Oil is refined so as to remove naturally occurring impurities.   原油通过精炼可去除其中天然存在的杂质。
+You’d better refine your backhand before the big tennis match if you want to throne.  如 果 你 想 获 得 冠军的话，你最好在网球大赛开赛前再提升一下反手的技术。</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1044,19 +1034,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>refine</t>
+          <t>refractory</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vt. 提纯，精炼：to free (as metal, sugar, or oil) from impurities or unwanted material
-vt. 改善，改进： to improve or perfect by pruning or polishing</t>
+          <t>adj. 倔强的，不顺从的： resisting control or authority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oil is refined so as to remove naturally occurring impurities.   原油通过精炼可去除其中天然存在的杂质。
-You’d better refine your backhand before the big tennis match if you want to throne.  如 果 你 想 获 得 冠军的话，你最好在网球大赛开赛前再提升一下反手的技术。</t>
+          <t>Refractory players will be ejected from the game.   不服从裁判命令的球员将会被驱逐出场。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1068,17 +1056,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>refractory</t>
+          <t>refulgent</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 倔强的，不顺从的： resisting control or authority</t>
+          <t>adj. 辉煌的，灿烂的： shining radiantly; resplendent</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Refractory players will be ejected from the game.   不服从裁判命令的球员将会被驱逐出场。</t>
+          <t>Refulgent sunlight broke through the clouds, creating huge swaths of light in the valley below us.  耀眼的阳光穿透了云层，在我们脚下的峡谷中投下了一块巨大的光斑</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1090,17 +1078,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>refulgent</t>
+          <t>refute</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 辉煌的，灿烂的： shining radiantly; resplendent</t>
+          <t>vt. 否认： to declare not to be true
+vt. 证明为假，证伪： to prove wrong by argument or evidence: show to be false or erroneous</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Refulgent sunlight broke through the clouds, creating huge swaths of light in the valley below us.  耀眼的阳光穿透了云层，在我们脚下的峡谷中投下了一块巨大的光斑</t>
+          <t>While the speak woman was publicly refuting rumors of a merger, behind the scenes the CEO was workingto effect that very outcome.  尽管女发言人一再公开否认合并的谣言，首席执行官却在幕后为这一目标而努力。
+The triumph of Chinese athlete Liu Xiang in the 2004 Olympics effectively refuted the views that Asians arephysically inferior to others.  中国运动员刘翔在 2004 年雅典奥运会上的胜利有效地驳斥了亚洲人在体格上不如其他人种的观点。</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1112,46 +1102,44 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>refute</t>
+          <t>regenerate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vt. 否认： to declare not to be true
-vt. 证明为假，证伪： to prove wrong by argument or evidence: show to be false or erroneous</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>While the speak woman was publicly refuting rumors of a merger, behind the scenes the CEO was workingto effect that very outcome.  尽管女发言人一再公开否认合并的谣言，首席执行官却在幕后为这一目标而努力。
-The triumph of Chinese athlete Liu Xiang in the 2004 Olympics effectively refuted the views that Asians arephysically inferior to others.  中国运动员刘翔在 2004 年雅典奥运会上的胜利有效地驳斥了亚洲人在体格上不如其他人种的观点。</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>regenerate</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
         <is>
           <t>vt. 使重获新生，使焕然一新： to bring back to life, practice, activity or a former condition of vigor
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>The lizard is able to regenerate its tail.  蜥 蜴 能 够 重 新 长 出 断 尾 。
 The whole community wasregenerated thanks to a government grant for repairing all the old buildings.   多亏了政府用于维修老楼的专项拨款，整个社区焕然一新。
 Every time he made a mistake, he would promise to regenerate.   每次犯错他都会保证洗心革面，下次不再犯。</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>regimen</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n. （政治上的）统治： lawful control over the affairs of a political unit (as a nation)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A new party will have regimen over the nation and, hopefully, bring some much-needed change.   一 个 新的政党将要上台，希望他们能带来一些迫切的改革。</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1161,17 +1149,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>regimen</t>
+          <t>regress</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n. （政治上的）统治： lawful control over the affairs of a political unit (as a nation)</t>
+          <t>vi. 后退： to go back; move backward
+vi. 退化，恶化： to become worse or of less value</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A new party will have regimen over the nation and, hopefully, bring some much-needed change.   一 个 新的政党将要上台，希望他们能带来一些迫切的改革。</t>
+          <t xml:space="preserve">To stand still is to regress.  不进则退。
+The annual celebration has regressed to the point where it's nothing more than an excuse to get drunk.  </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1183,46 +1173,44 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>regress</t>
+          <t>rehabilitate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>vi. 后退： to go back; move backward
-vi. 退化，恶化： to become worse or of less value</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">To stand still is to regress.  不进则退。
-The annual celebration has regressed to the point where it's nothing more than an excuse to get drunk.  </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>rehabilitate</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 使复原，使康复： to restore to a former state (as of efficiency, good management, or solvency) ora healthy condition
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>new policies in hopes of rehabilitating the national economy  被 指 望 能 振 兴 国 家 经 济 的 新 政 策
 Shedecided to undergo physical therapy to help rehabilitate her broken elbow.  她决定采取理疗来治疗受伤的手肘。
 an organization that rehabilitates criminals so they can reenter society  一个让罪犯洗心革面的机构，以便让他们能重返社会</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rehearsal</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>n. 排练，彩排： the act of practicing in preparation for a public performance</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1232,17 +1220,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rehearsal</t>
+          <t>reign</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 排练，彩排： the act of practicing in preparation for a public performance</t>
+          <t>n. 统治权： the right or means to command or control others</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。</t>
+          <t xml:space="preserve">A healthy nation should be governed by the reign of law and not by the will of its chief executive.   一 个 健康的国家应该是法制的，而非由最高领导人的意志统领。
+They accused him of carrying out a reign of terror.  </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1254,18 +1243,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>reign</t>
+          <t>rein</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 统治权： the right or means to command or control others</t>
+          <t>n. 抑制，限制： the act or practice of keeping something (as an activity) within certain boundaries
+vi. 抑制，控制： to keep from exceeding a desirable degree or level (as of expression)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">A healthy nation should be governed by the reign of law and not by the will of its chief executive.   一 个 健康的国家应该是法制的，而非由最高领导人的意志统领。
-They accused him of carrying out a reign of terror.  </t>
+          <t>The oversight committee called on the corporation to keep a much tighter rein on the activities of itscontractors.   监督委员会要求这个公司对其承包商的行为采取更为严格的管控。
+A good man knows how to rein in his temper.   君子知道如何按捺住火气。</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1277,19 +1267,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>rein</t>
+          <t>reiterate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 抑制，限制： the act or practice of keeping something (as an activity) within certain boundaries
-vi. 抑制，控制： to keep from exceeding a desirable degree or level (as of expression)</t>
+          <t>v. 重申： to say or state again</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The oversight committee called on the corporation to keep a much tighter rein on the activities of itscontractors.   监督委员会要求这个公司对其承包商的行为采取更为严格的管控。
-A good man knows how to rein in his temper.   君子知道如何按捺住火气。</t>
+          <t>Let me reiterate our stance.   让我来重述我们的立场。
+I want to reiterate that under no circumstances areyou to leave the house.  我想再次重申：无论如何你都不能离开这间房子。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1301,18 +1290,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>reiterate</t>
+          <t>rejoice</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>v. 重申： to say or state again</t>
+          <t>vi. 欣喜，喜悦： to feel joy or great delight</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Let me reiterate our stance.   让我来重述我们的立场。
-I want to reiterate that under no circumstances areyou to leave the house.  我想再次重申：无论如何你都不能离开这间房子。</t>
+          <t>We rejoiced over our unexpected victory on the soccer field.  我们为预料之外的足球胜利而感到欢喜。</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1324,17 +1312,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>rejoice</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vi. 欣喜，喜悦： to feel joy or great delight</t>
+          <t>vi. 故态复萌，再犯： to slip or fall back into a former worse state</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>We rejoiced over our unexpected victory on the soccer field.  我们为预料之外的足球胜利而感到欢喜。</t>
+          <t>The patient wondered whether his illness would relapse.  病人想知道他的病会不会复发。</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1346,19 +1334,15 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>release</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vi. 故态复萌，再犯： to slip or fall back into a former worse state</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The patient wondered whether his illness would relapse.  病人想知道他的病会不会复发。</t>
-        </is>
-      </c>
+          <t>vt. 排放： to throw or give off</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1368,15 +1352,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>release</t>
+          <t>relentless</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vt. 排放： to throw or give off</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>adj. 残酷的，无情的： showing or promising no abatement of severity, intensity, strength, or pace
+adj. 固执的，不肯妥协的： showing no signs of slackening or yielding in one's purpose</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>He was the most teacher enemy I have ever known.  他是我所知的最狠的老师。
+The team's offense was relentless in trying to score.  进攻球员毫不妥协地努力得分。</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1386,19 +1376,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>relentless</t>
+          <t>relevant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>adj. 残酷的，无情的： showing or promising no abatement of severity, intensity, strength, or pace
-adj. 固执的，不肯妥协的： showing no signs of slackening or yielding in one's purpose</t>
+          <t>adj. 有关系的，重要的： having a bearing on or connection with the matter at hand</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>He was the most teacher enemy I have ever known.  他是我所知的最狠的老师。
-The team's offense was relentless in trying to score.  进攻球员毫不妥协地努力得分。</t>
+          <t>Make sure your answers during the interview are short and relevant.   确 保 你 在 面 试 时 的 回 答 简 短 而 恰当。
+You need to bring all the relevant certificates with you.   你需要携带所有的相关证明。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1410,18 +1399,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>relevant</t>
+          <t>religion</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 有关系的，重要的： having a bearing on or connection with the matter at hand</t>
+          <t>n. 宗教，信仰： a body of beliefs and practices regarding the supernatural and the worship of one ormore deities
+n. （对于宗教信仰的）忠诚，虔诚： belief and trust in and loyalty to God</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Make sure your answers during the interview are short and relevant.   确 保 你 在 面 试 时 的 回 答 简 短 而 恰当。
-You need to bring all the relevant certificates with you.   你需要携带所有的相关证明。</t>
+          <t xml:space="preserve">The Jewish religion has followers in many parts of the globe.  犹太教在全球范围内有大量信徒。
+Without his religion, he would not have been able to survive all the difficulties he has faced over the years.  </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1433,72 +1423,70 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>religion</t>
+          <t>relinquish</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>n. 宗教，信仰： a body of beliefs and practices regarding the supernatural and the worship of one ormore deities
-n. （对于宗教信仰的）忠诚，虔诚： belief and trust in and loyalty to God</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Jewish religion has followers in many parts of the globe.  犹太教在全球范围内有大量信徒。
-Without his religion, he would not have been able to survive all the difficulties he has faced over the years.  </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>relinquish</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
         <is>
           <t>vt. 放弃（职位、权力等）： to give up (as a position of authority) formally
 vt. 移交，交出： to give (something) over to the control or possession of another usually underduress</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>She relinquished his position to the company's vice president with very mixed feelings.   怀 着 十 分 复 杂 的情感，她放弃了公司副总裁的职位。
 The boy reluctantly relinquished the illegal fireworks to the police officer.   小男孩不情愿地把非法的焰火交给了警察。
 The court ordered him to relinquish custody of his child.   法庭要求他交出孩子的监护权。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>relish</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>n. 喜好，偏好： an appetite for something; a strong appreciation or liking
 n. （愿望达成时的）高兴，满足感： the feeling experienced when one's wishes are met
 vt. 享受，喜欢： to take keen or zestful pleasure in</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>She has great relish for early morning walks, which she takes nearly every day.  她 对 早 晨散 步 有格 外的喜好——几乎每天早上她都会如此。
 He ate the bowl of ice cream with relish.   他高兴地吃着冰淇淋。
 He is so hungry that he will relish even plain food.   他是如此的饥饿，以至于普通的食物也能让他满意。</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>reluctant</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>adj. 不情愿的，反感的： feeling or showing aversion, hesitation, or unwillingness</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>I'm reluctant to let him borrow my CDs since he never gives back anything I lend him.   我 很 不 愿 意 把 我的 CD  借给他，因为他借了我东西从来不还。</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1508,17 +1496,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>reluctant</t>
+          <t>remiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 不情愿的，反感的： feeling or showing aversion, hesitation, or unwillingness</t>
+          <t>adj. 疏忽的，不留心的： exhibiting carelessness or slackness</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I'm reluctant to let him borrow my CDs since he never gives back anything I lend him.   我 很 不 愿 意 把 我的 CD  借给他，因为他借了我东西从来不还。</t>
+          <t>I would be remiss if I didn't tell you how much I appreciated the lovely gift.   如果我不告诉你我是多么的喜欢这个可爱的礼物的话，那我就太疏忽大意了。</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1530,17 +1518,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>remiss</t>
+          <t>remodel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 疏忽的，不留心的： exhibiting carelessness or slackness</t>
+          <t>vt. 改造，改变结构： to alter the structure of</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>I would be remiss if I didn't tell you how much I appreciated the lovely gift.   如果我不告诉你我是多么的喜欢这个可爱的礼物的话，那我就太疏忽大意了。</t>
+          <t>We decided to remodel the warehouse into a museum displaying the products of the company.   我 们 决定把仓库改造成展览我们公司产品的博物馆。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1552,17 +1540,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>remodel</t>
+          <t>remonstrance</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vt. 改造，改变结构： to alter the structure of</t>
+          <t>n. 抗议，抱怨： an expression of protest, complaint, or reproof, especially a formal statement ofgrievances</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>We decided to remodel the warehouse into a museum displaying the products of the company.   我 们 决定把仓库改造成展览我们公司产品的博物馆。</t>
+          <t>She seems deaf to her son’s remonstrances.   她似乎对儿子的抗议充耳不闻。
+Aggravated by the noisymetro construction, many residents wrote letters of remonstrance to city officials.   许多被地铁建设的噪音激怒的居民向市政府投去了抗议信。</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1574,18 +1563,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>remonstrance</t>
+          <t>remorse</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. 抗议，抱怨： an expression of protest, complaint, or reproof, especially a formal statement ofgrievances</t>
+          <t>n. 懊悔，悔恨： moral anguish arising from repentance for past misdeeds; bitter regret</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>She seems deaf to her son’s remonstrances.   她似乎对儿子的抗议充耳不闻。
-Aggravated by the noisymetro construction, many residents wrote letters of remonstrance to city officials.   许多被地铁建设的噪音激怒的居民向市政府投去了抗议信。</t>
+          <t>He felt a deep remorse for having neglected his family over the years.  他为多年来忽略家人的行为表示懊悔。</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1597,17 +1585,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>remorse</t>
+          <t>remunerate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n. 懊悔，悔恨： moral anguish arising from repentance for past misdeeds; bitter regret</t>
+          <t>vt. 支付报酬或补偿： to pay an equivalent to for a service, loss, or expense</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>He felt a deep remorse for having neglected his family over the years.  他为多年来忽略家人的行为表示懊悔。</t>
+          <t>He promptly remunerated the repair company for fixing the satellite TV.   他迅速地支付了维修公司修卫星电视所应得的酬劳。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1619,17 +1607,18 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>remunerate</t>
+          <t>rend</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 支付报酬或补偿： to pay an equivalent to for a service, loss, or expense</t>
+          <t>vt. 撕裂，猛拉： to tear or split apart or into pieces violently</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>He promptly remunerated the repair company for fixing the satellite TV.   他迅速地支付了维修公司修卫星电视所应得的酬劳。</t>
+          <t>Wolves rend a game to pieces.   狼群会把猎物撕成碎片。
+pain that rends the heart  撕心般的痛</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1641,18 +1630,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>rend</t>
+          <t>renegade</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 撕裂，猛拉： to tear or split apart or into pieces violently</t>
+          <t>n. 背教者，叛徒： one who rejects a religion, cause, allegiance, or group for another; a deserter</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Wolves rend a game to pieces.   狼群会把猎物撕成碎片。
-pain that rends the heart  撕心般的痛</t>
+          <t>A band of renegades who had deserted their infantry units were making their way to Mexico.  一 支 背叛了他们所属的步兵编队的士兵朝着墨西哥前进。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1664,17 +1652,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>renegade</t>
+          <t>renounce</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 背教者，叛徒： one who rejects a religion, cause, allegiance, or group for another; a deserter</t>
+          <t>vt. （正式地）放弃： to give up, refuse, or resign usually by formal declaration
+vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A band of renegades who had deserted their infantry units were making their way to Mexico.  一 支 背叛了他们所属的步兵编队的士兵朝着墨西哥前进。</t>
+          <t>renounce his nationality  退出国籍
+renounce the authority of the church  宣布与教廷彻底决裂</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1686,19 +1676,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>renounce</t>
+          <t>renovate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. （正式地）放弃： to give up, refuse, or resign usually by formal declaration
-vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
+          <t>vt. 修复，维修： to restore to a former better state (as by cleaning, repairing, or rebuilding)
+vt. 使重获新生，使焕然一新：to bring back to life, practice, activity or a former condition of vigor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>renounce his nationality  退出国籍
-renounce the authority of the church  宣布与教廷彻底决裂</t>
+          <t>We will have to renovate the house extensively before we can move in.   在入住之前我们必须大规模翻修一下这栋房子。
+The church was renovated by a new ecumenical spirit.   新的宗教领袖的到来让教堂焕发新生。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1710,19 +1700,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>renovate</t>
+          <t>repartee</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vt. 修复，维修： to restore to a former better state (as by cleaning, repairing, or rebuilding)
-vt. 使重获新生，使焕然一新：to bring back to life, practice, activity or a former condition of vigor</t>
+          <t>n. 机智的回答： a quick witty response
+n. 打趣，善意的玩笑： good-natured teasing or exchanging of clever remarks</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>We will have to renovate the house extensively before we can move in.   在入住之前我们必须大规模翻修一下这栋房子。
-The church was renovated by a new ecumenical spirit.   新的宗教领袖的到来让教堂焕发新生。</t>
+          <t>That repartee to the reporter's question drew laughs from the bystanders.   对记者问题的那个机智回答引来了旁观者的笑声。
+Repartee is harder to do with text messaging.   用短信开起玩笑来困难多了。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1734,19 +1724,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>repartee</t>
+          <t>repatriate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n. 机智的回答： a quick witty response
-n. 打趣，善意的玩笑： good-natured teasing or exchanging of clever remarks</t>
+          <t>vt. 遣返： to restore or return to the country of origin, allegiance, or citizenship</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>That repartee to the reporter's question drew laughs from the bystanders.   对记者问题的那个机智回答引来了旁观者的笑声。
-Repartee is harder to do with text messaging.   用短信开起玩笑来困难多了。</t>
+          <t>As soon as the war ends, the government will start to repatriate war refugees.   只要战争一结束，政府就会开始遣返战争难民。</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1758,69 +1746,69 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>repatriate</t>
+          <t>repeal</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>vt. 遣返： to restore or return to the country of origin, allegiance, or citizenship</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>As soon as the war ends, the government will start to repatriate war refugees.   只要战争一结束，政府就会开始遣返战争难民。</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>repeal</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
         <is>
           <t>vt. 撤销，废除（法律等）： to rescind or annul by authoritative act
 vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>The company called the furniture store to repeal the order for six new desks.   公司要求家具店撤销六张新桌子的订单。
 In 1933, Congress passed the 21st Amendment which repealed the Prohibition Amendment of1919, thus making the sale, distribution, and use of alcohol legal once again.   1933 年，国会通过了《第二十一修正案》，该法案废除了于 1919 年制订的《禁酒法》，从而使得酒的买卖、配送和使用再次合法化。
 If I find that you have been lying about this, I'll instantly repeal every promise I made to you.   只 要 我 发 现在这个问题上你对我撒了谎，那我们之间的承诺就彻底断裂了。</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>repel</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>vt. 抵制： to fight against; resist
 vt. 使厌恶： to cause aversion in: disgust</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Self-discipline ensures that you can repel the things that induce you.   自律可以保证你抵制那些诱惑你的事物。
 I repelled the temptation to stay out late and call in sick the next day.  我抵住了晚上玩通宵然后第二天谎称生病的诱惑。
 Evil odors always repel me.   臭味总是让我恶心。</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>repertoire</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. （技术、设备或原料等的）详单： the complete list or supply of skills, devices, or ingredients usedin a particular field, occupation, or practice</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The chef's repertoire of specialties seems to be limited, with several of the dishes appearing over and overagain in slightly varied guises.   这个厨师的所有拿手好戏看来是很有限的，因为上来的几盘菜看起来只是稍微换了一下装饰而已。</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1830,17 +1818,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>repertoire</t>
+          <t>repine</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n. （技术、设备或原料等的）详单： the complete list or supply of skills, devices, or ingredients usedin a particular field, occupation, or practice</t>
+          <t>vi. 抱怨，表达不满： to feel or express discontent or dejection</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>The chef's repertoire of specialties seems to be limited, with several of the dishes appearing over and overagain in slightly varied guises.   这个厨师的所有拿手好戏看来是很有限的，因为上来的几盘菜看起来只是稍微换了一下装饰而已。</t>
+          <t>There is no use repining over a love that's been long lost.   抱怨早已失去的爱情是没有用的。</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1852,17 +1840,19 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>repine</t>
+          <t>replete</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vi. 抱怨，表达不满： to feel or express discontent or dejection</t>
+          <t>adj. 彻底吃饱了的： having one's appetite completely satisfied
+adj. 充满…的，富于…的： possessing or covered with great numbers or amounts of somethingspecified</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>There is no use repining over a love that's been long lost.   抱怨早已失去的爱情是没有用的。</t>
+          <t>Everyone is completely replete after the huge meal.  在大餐之后，每个人都吃撑了。
+a scholar replete with knowledge  博学的学者</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1874,34 +1864,10 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>replete</t>
+          <t>repose</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>adj. 彻底吃饱了的： having one's appetite completely satisfied
-adj. 充满…的，富于…的： possessing or covered with great numbers or amounts of somethingspecified</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Everyone is completely replete after the huge meal.  在大餐之后，每个人都吃撑了。
-a scholar replete with knowledge  博学的学者</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>repose</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
         <is>
           <t>n. （劳作后的）休息： a state of resting after exertion or strain
 n. 平静，宁静： a state of freedom from storm or disturbance
@@ -1909,7 +1875,7 @@
 vt. 放置，交给他人： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The doctor ordered a period of repose for the patient suffering from insomnia.   医生要求正在饱受失眠折磨的病人好好休息一阵。
 We enjoyed the repose of a summer evening on a remote island.  我们在遥远的小岛上共享了夏日傍晚的片刻安宁。
@@ -1917,6 +1883,28 @@
 The Constitution reposes the power to declare war to Congress, and to that body alone.  宪 法 将 宣 战的权力交给了国会单独保管。</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>reprehend</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>vt. 谴责，责难，批评： to express one's unfavorable opinion of the worth or quality of</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Without exception, book reviewers reprehended the novel's trite plot.   毫无例外的，小说缺乏新意的故事情节收到了评论家们的责难。</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1926,17 +1914,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>reprehend</t>
+          <t>repress</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vt. 谴责，责难，批评： to express one's unfavorable opinion of the worth or quality of</t>
+          <t>vt. 镇压： to put down by force, usually before total control has been lost; quell
+vt. 阻止（正常的表达、活动或发展等）： to prevent the natural or normal expression, activity, ordevelopment of</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Without exception, book reviewers reprehended the novel's trite plot.   毫无例外的，小说缺乏新意的故事情节收到了评论家们的责难。</t>
+          <t>Military quickly repressed the rebellion in the city and restored order.   军方迅速平息了市内的暴乱，恢复了秩序。
+You can't repress your feelings forever, so tell her that you love her.   你不可能永远压抑自己的感受，所以大胆地跟她表白吧。</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1948,19 +1938,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>repress</t>
+          <t>reprieve</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vt. 镇压： to put down by force, usually before total control has been lost; quell
-vt. 阻止（正常的表达、活动或发展等）： to prevent the natural or normal expression, activity, ordevelopment of</t>
+          <t>vt. 暂缓处刑，免罪： to postpone or cancel the punishment of</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Military quickly repressed the rebellion in the city and restored order.   军方迅速平息了市内的暴乱，恢复了秩序。
-You can't repress your feelings forever, so tell her that you love her.   你不可能永远压抑自己的感受，所以大胆地跟她表白吧。</t>
+          <t>Fourteen people, waiting to be hanged for the murder of a former prime minister, have been reprieved</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1972,17 +1960,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>reprieve</t>
+          <t>reproach</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vt. 暂缓处刑，免罪： to postpone or cancel the punishment of</t>
+          <t>n. 令人羞愧的事物，耻辱： one that causes shame, rebuke or blame
+vt. 批评，责备： to express disapproval, criticism, or disappointment in (someone)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Fourteen people, waiting to be hanged for the murder of a former prime minister, have been reprieved</t>
+          <t>a reproach to this entire school  整个学校的耻辱
+reproached by their mother for untidiness  因为邋遢而被他们的母亲批评</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1994,34 +1984,10 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>reproach</t>
+          <t>reprobate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>n. 令人羞愧的事物，耻辱： one that causes shame, rebuke or blame
-vt. 批评，责备： to express disapproval, criticism, or disappointment in (someone)</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>a reproach to this entire school  整个学校的耻辱
-reproached by their mother for untidiness  因为邋遢而被他们的母亲批评</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>reprobate</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
         <is>
           <t>n. 堕落者，道德败坏的人：a morally unprincipled person
 adj. 堕落的，放荡的： morally corrupt
@@ -2029,7 +1995,7 @@
 vt. 拒绝，不提供： to be unwilling to grant</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>The program rehabilitates reprobates and turns them into hard-working, law-abiding citizens.  这 个 项目让那些堕落的人改过自新，并将他们变成勤劳守法的好公民。
 He is a reprobate judge who could be bribed, and often with astonishing ease.   他是一个堕落的法官，极其容易就被贿赂了。
@@ -2037,6 +2003,28 @@
 The government will most likely reprobate the request for parole.  政府很有可能会拒绝假释的要求。</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>reproof</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>n. 批评，反对： criticism for a fault, rebuke</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>The head teacher speaks in tones of gentle reproof.  校长的话语中带有隐晦的批评。</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2046,17 +2034,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>reproof</t>
+          <t>reprove</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n. 批评，反对： criticism for a fault, rebuke</t>
+          <t>vt. 温和地责备，警告： to scold or correct usually gently or with kindly intent
+vt. 不欣赏，不喜欢： to hold an unfavorable opinion of</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The head teacher speaks in tones of gentle reproof.  校长的话语中带有隐晦的批评。</t>
+          <t>My piano teacher often reproves me for slouching while playing, observing that good posture helps oneplay better.   我的钢琴老师常常会因为懒散的坐姿而批评我，他认为良好的坐姿能让我弹得更好。
+The older generation has always reproved the younger generation's taste in music.  老 一 代 的 人 总 是不喜欢新一代的音乐品味。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2068,19 +2058,18 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>reprove</t>
+          <t>repudiate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vt. 温和地责备，警告： to scold or correct usually gently or with kindly intent
-vt. 不欣赏，不喜欢： to hold an unfavorable opinion of</t>
+          <t>vt. 否认： to declare not to be true
+vt. 拒绝接受： to show unwillingness to accept, do, engage in, or agree to</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>My piano teacher often reproves me for slouching while playing, observing that good posture helps oneplay better.   我的钢琴老师常常会因为懒散的坐姿而批评我，他认为良好的坐姿能让我弹得更好。
-The older generation has always reproved the younger generation's taste in music.  老 一 代 的 人 总 是不喜欢新一代的音乐品味。</t>
+          <t>She repudiated the charge that she had lied on her résumé.   她否认了她在简历中作假的指控。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2092,18 +2081,19 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>repudiate</t>
+          <t>repugnant</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vt. 否认： to declare not to be true
-vt. 拒绝接受： to show unwillingness to accept, do, engage in, or agree to</t>
+          <t>adj. 令人厌恶的： arousing disgust or aversion
+adj. 不和谐的，不协调的： not being in agreement or harmony</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>She repudiated the charge that she had lied on her résumé.   她否认了她在简历中作假的指控。</t>
+          <t>The idea of moving again became repugnant to her.  又要搬家的想法让她感到厌恶。
+Technically speaking, it may not be a violation, but it is certainly repugnant to the spirit of the law.  技术上来说这还算不上违法，但是这肯定违背了法律的精神。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2115,19 +2105,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>repugnant</t>
+          <t>repulse</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 令人厌恶的： arousing disgust or aversion
-adj. 不和谐的，不协调的： not being in agreement or harmony</t>
+          <t>vt. （使）厌恶，排斥： to rebuff or reject with rudeness, coldness, or denial</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The idea of moving again became repugnant to her.  又要搬家的想法让她感到厌恶。
-Technically speaking, it may not be a violation, but it is certainly repugnant to the spirit of the law.  技术上来说这还算不上违法，但是这肯定违背了法律的精神。</t>
+          <t>The scenes of violence in the film may repulse some viewers.   电影中某些暴力场景可能会使观众反感。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2139,17 +2127,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>repulse</t>
+          <t>repute</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>vt. （使）厌恶，排斥： to rebuff or reject with rudeness, coldness, or denial</t>
+          <t>n. （尤指好的）名声，名誉： a good reputation</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>The scenes of violence in the film may repulse some viewers.   电影中某些暴力场景可能会使观众反感。</t>
+          <t>Before his national bestseller, he was a writer of little repute.  在他的畅销书出来之前，他是个没什么名声的作家。</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2161,17 +2149,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>repute</t>
+          <t>requite</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n. （尤指好的）名声，名誉： a good reputation</t>
+          <t>vt. 酬谢，报答： to make repayment or return for</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Before his national bestseller, he was a writer of little repute.  在他的畅销书出来之前，他是个没什么名声的作家。</t>
+          <t>requited her love with hatred  恩将仇报</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2183,17 +2171,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>requite</t>
+          <t>requisite</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vt. 酬谢，报答： to make repayment or return for</t>
+          <t>n. 必需品： something necessary, indispensable, or unavoidable
+adj. 必不可少的，必备的： essential, necessary</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>requited her love with hatred  恩将仇报</t>
+          <t>Calculus is a requisite for modern physics.  微积分是学习近代物理的必要知识。
+Oxygen is requisite for human to survive.   氧气是维持人类生命的必要条件。</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2205,19 +2195,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>requisite</t>
+          <t>rescind</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>n. 必需品： something necessary, indispensable, or unavoidable
-adj. 必不可少的，必备的： essential, necessary</t>
+          <t>vt. 废除，取消： to make void</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Calculus is a requisite for modern physics.  微积分是学习近代物理的必要知识。
-Oxygen is requisite for human to survive.   氧气是维持人类生命的必要条件。</t>
+          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2229,17 +2217,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>rescind</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>vt. 废除，取消： to make void</t>
+          <t>adj. 内向的，缄默的： restrained in words and actions</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
+          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2251,17 +2239,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>reserved</t>
+          <t>residue</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 内向的，缄默的： restrained in words and actions</t>
+          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
+          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2273,17 +2261,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>residue</t>
+          <t>resign</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
+          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
+          <t>resigned her position at the university  自动放弃她在大学的职位</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2295,19 +2283,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>resign</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>resigned her position at the university  自动放弃她在大学的职位</t>
-        </is>
-      </c>
+          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2317,15 +2301,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>resolute</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>adj. 坚定的： marked by firm determination</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2335,17 +2323,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>resolute</t>
+          <t>resonant</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 坚定的： marked by firm determination</t>
+          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
+          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2357,17 +2345,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>resonant</t>
+          <t>resourceful</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
+          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
+          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2379,17 +2367,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>resourceful</t>
+          <t>respite</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
+          <t>n. 间歇，休息： an interval of rest or relief</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
+          <t>to toil without respite  埋头苦干
+In the middle of each semester there came a short respite.   在 每 个学期的期中，会有一个短暂的休假。</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2401,20 +2390,15 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>respite</t>
+          <t>respire</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 间歇，休息： an interval of rest or relief</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>to toil without respite  埋头苦干
-In the middle of each semester there came a short respite.   在 每 个学期的期中，会有一个短暂的休假。</t>
-        </is>
-      </c>
+          <t>vi. 呼吸： to inhale and exhale air successively</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2424,15 +2408,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>respire</t>
+          <t>resplendent</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vi. 呼吸： to inhale and exhale air successively</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>adj. 华丽辉煌的： shining brilliantly</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Geography teacher showed us a picture of the resplendent aurora borealis.   地理老师给我们展示了一张壮丽的北极光的照片。</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2442,17 +2430,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>resplendent</t>
+          <t>responsive</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 华丽辉煌的： shining brilliantly</t>
+          <t>adj. 敏感的： quick to respond or react appropriately or sympathetically</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Geography teacher showed us a picture of the resplendent aurora borealis.   地理老师给我们展示了一张壮丽的北极光的照片。</t>
+          <t>Children are often the most responsive members of the audience.  儿童通常是观众中最为敏感的群体</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2464,17 +2452,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>responsive</t>
+          <t>restive</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 敏感的： quick to respond or react appropriately or sympathetically</t>
+          <t>adj. 急躁的，忧虑的： marked by impatience or uneasiness
+adj. 难以管束的： stubbornly resisting control</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Children are often the most responsive members of the audience.  儿童通常是观众中最为敏感的群体</t>
+          <t>I spent a restive night worrying about the next day's exam.   我度过了忧虑的一晚，担心明天的考试。
+Tired soldiers grew restive.   疲惫的士兵变得越来越难以管理。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2486,19 +2476,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>restive</t>
+          <t>restless</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 急躁的，忧虑的： marked by impatience or uneasiness
-adj. 难以管束的： stubbornly resisting control</t>
+          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>I spent a restive night worrying about the next day's exam.   我度过了忧虑的一晚，担心明天的考试。
-Tired soldiers grew restive.   疲惫的士兵变得越来越难以管理。</t>
+          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2510,17 +2498,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>restless</t>
+          <t>restrain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
+          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
+          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2532,17 +2520,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>restrain</t>
+          <t>resurgence</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
+          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
+          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2554,17 +2542,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>resurgence</t>
+          <t>resuscitate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
+          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
+          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2576,17 +2564,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>resuscitate</t>
+          <t>retainer</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
+          <t>n. 家仆： a person attached or owing service to a household</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
+          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2598,17 +2586,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>retainer</t>
+          <t>retaliate</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 家仆： a person attached or owing service to a household</t>
+          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
+          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2620,17 +2608,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>retaliate</t>
+          <t>retard</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
+          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
+          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2642,17 +2630,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>retard</t>
+          <t>retinue</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
+          <t>n. 随行人员： a group of retainers or attendants</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
+          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2664,17 +2652,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>retinue</t>
+          <t>reticent</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 随行人员： a group of retainers or attendants</t>
+          <t>adj. 沉默不语的： inclined to be silent or uncommunicative in speech
+adj. 不愿意的： slow to begin or proceed with a course of action because of doubts or uncertainty</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
+          <t>He was reticent about his plans.   他对他的计划三缄其口。
+Understandably, she's reticent about becoming involved with another religious sect.  不难理解，她不愿意被牵扯另一个宗教派别之中。</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2686,19 +2676,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>reticent</t>
+          <t>retort</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 沉默不语的： inclined to be silent or uncommunicative in speech
-adj. 不愿意的： slow to begin or proceed with a course of action because of doubts or uncertainty</t>
+          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>He was reticent about his plans.   他对他的计划三缄其口。
-Understandably, she's reticent about becoming involved with another religious sect.  不难理解，她不愿意被牵扯另一个宗教派别之中。</t>
+          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2710,17 +2698,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>retort</t>
+          <t>retouch</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
+          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
+          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2732,17 +2720,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>retouch</t>
+          <t>retract</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
+          <t>vt. 收回，否认： to take back</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
+          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2754,17 +2742,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>retract</t>
+          <t>retrench</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vt. 收回，否认： to take back</t>
+          <t>vi. 削减开支： to curtail expenses</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
+          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2776,17 +2764,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>retrench</t>
+          <t>retribution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vi. 削减开支： to curtail expenses</t>
+          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
+          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2798,17 +2786,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>retribution</t>
+          <t>retrograde</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
+          <t>adj. 倒退的： moving or tending backward
+v. 退步，退化： to decline to a worse condition</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
+          <t>This is a retrograde step and you will regret it.   这是后退的一步，你以后肯定会后悔的。
+The Dark Ages is the period following the fall of the Roman Empire when Western civilization seriouslyretrograded.   “黑暗时代”指的是罗马帝国崩溃之后，西方文明严重退步的一个历史时期。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2820,19 +2810,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>retrograde</t>
+          <t>retrospective</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 倒退的： moving or tending backward
-v. 退步，退化： to decline to a worse condition</t>
+          <t>adj. 回顾的： looking back on, contemplating, or directed to the past</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>This is a retrograde step and you will regret it.   这是后退的一步，你以后肯定会后悔的。
-The Dark Ages is the period following the fall of the Roman Empire when Western civilization seriouslyretrograded.   “黑暗时代”指的是罗马帝国崩溃之后，西方文明严重退步的一个历史时期。</t>
+          <t>a retrospective glance at my youth  朝我少年时代投去的回顾性一瞥</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2844,17 +2832,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>retrospective</t>
+          <t>revelry</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 回顾的： looking back on, contemplating, or directed to the past</t>
+          <t>n. 狂欢，喧闹的作乐： noisy partying or merrymaking</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>a retrospective glance at my youth  朝我少年时代投去的回顾性一瞥</t>
+          <t>They were exhausted after the night of revelry.  一夜狂欢后大家都筋疲力尽</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2866,44 +2854,45 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>revelry</t>
+          <t>revenge</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>n. 狂欢，喧闹的作乐： noisy partying or merrymaking</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>They were exhausted after the night of revelry.  一夜狂欢后大家都筋疲力尽</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>revenge</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
         <is>
           <t>n. 报复，复仇： an act or instance of retaliating in order to get even
 vt. 复仇： to avenge (as oneself) usually by retaliating in kind or degree</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Both sides were determined to get revenge for losses and showed little interest in ending the feud.   双方都下定决心要为失去的东西报仇，对于结束他们之间的世仇毫无兴趣。
 The bombing was in revenge for theassassination of their leader.  此次轰炸是对暗杀他们领袖的报复行动。
 He finally revenged the death of his brother.   他终于为兄弟的死报了仇。</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>revere</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>vt. （尤指对神的）尊崇，尊敬： to offer honor or respect to (someone) as a divine power</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>He is revered for his valor.   他 因 为 他 的 英 勇 而 受 到 尊 敬 。
+In some cultures people revere theirancestors, even leaving food offerings for them.   在一些文化当中，人们非常敬重先人，甚至将一些食物留下来供他们享用。</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2913,18 +2902,18 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>revere</t>
+          <t>revise</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vt. （尤指对神的）尊崇，尊敬： to offer honor or respect to (someone) as a divine power</t>
+          <t>vt. 更改，修正： to look over again in order to correct or improve</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>He is revered for his valor.   他 因 为 他 的 英 勇 而 受 到 尊 敬 。
-In some cultures people revere theirancestors, even leaving food offerings for them.   在一些文化当中，人们非常敬重先人，甚至将一些食物留下来供他们享用。</t>
+          <t>There are many problems involved in revising a dictionary.   修正字典会牵涉到诸多问题。
+With the snow,we'll need to revise our travel plans.   因为下雪了，我们不得不更改旅游计划。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2936,45 +2925,44 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>revise</t>
+          <t>revive</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>vt. 更改，修正： to look over again in order to correct or improve</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>There are many problems involved in revising a dictionary.   修正字典会牵涉到诸多问题。
-With the snow,we'll need to revise our travel plans.   因为下雪了，我们不得不更改旅游计划。</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>revive</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
         <is>
           <t>vi. 恢复意识： to return to consciousness or life, become flourishing again
 v. 再获新生： become active or flourishing again</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>successfully revived him with artificial respiration  用人工呼吸使成功他恢复意识
 Around midnight, I usually need to revive myself with a cup of strong coffee.   在午夜时分，我需要一杯浓咖啡来提神。
 The success of the movie has revived her career.   这部电影的成功让他的事业焕发第二春。</t>
         </is>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>vt. 撤回，宣告无效： to annul by recalling or taking back</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>to revoke a will  废除遗嘱</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2984,17 +2972,19 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>revoke</t>
+          <t>revolt</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. 撤回，宣告无效： to annul by recalling or taking back</t>
+          <t>vt. 使厌恶，反感： to fill with disgust or abhorrence
+vi. 反叛： to renounce allegiance or subjection (as to a government)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>to revoke a will  废除遗嘱</t>
+          <t>The smell of seafood revolts him.  他对海鲜的腥味十分反感。
+The revolted against the dictator by burning his palace.   他们通过焚烧宫殿来对抗独裁者。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3006,19 +2996,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>revolt</t>
+          <t>ribald</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. 使厌恶，反感： to fill with disgust or abhorrence
-vi. 反叛： to renounce allegiance or subjection (as to a government)</t>
+          <t>adj. 举止、言语下流粗俗的： characterized by or indulging in vulgar, lewd humor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>The smell of seafood revolts him.  他对海鲜的腥味十分反感。
-The revolted against the dictator by burning his palace.   他们通过焚烧宫殿来对抗独裁者。</t>
+          <t>entertained the guests with ribald jokes  用荤段子来取悦客人</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3030,17 +3018,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ribald</t>
+          <t>rickety</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 举止、言语下流粗俗的： characterized by or indulging in vulgar, lewd humor</t>
+          <t>adj. 不稳的： lacking stability or firmness</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>entertained the guests with ribald jokes  用荤段子来取悦客人</t>
+          <t>The rickety coalition may break at any moment.   脆弱的联盟随时都可能破裂。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3052,19 +3040,16 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>rickety</t>
+          <t>rider</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 不稳的： lacking stability or firmness</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>The rickety coalition may break at any moment.   脆弱的联盟随时都可能破裂。</t>
-        </is>
-      </c>
+          <t>n. 骑马的人： one that rides
+n. 附件： a clause appended to a legislative bill to secure a usually distinct object</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3074,16 +3059,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>rider</t>
+          <t>ridicule</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n. 骑马的人： one that rides
-n. 附件： a clause appended to a legislative bill to secure a usually distinct object</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
+          <t>vt. 嘲笑： to make fun of</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>always ridiculed everything she said  总是嘲笑她说的话
+The term “big bang theory” was originallycoined to ridicule the belief that the universe was created by a giant explosion.  “大爆炸理论”期初是为了嘲笑一种观点而创造的，这种观点认为宇宙源自一场巨大的爆炸。</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3093,18 +3082,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ridicule</t>
+          <t>rife</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>vt. 嘲笑： to make fun of</t>
+          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>always ridiculed everything she said  总是嘲笑她说的话
-The term “big bang theory” was originallycoined to ridicule the belief that the universe was created by a giant explosion.  “大爆炸理论”期初是为了嘲笑一种观点而创造的，这种观点认为宇宙源自一场巨大的爆炸。</t>
+          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3116,19 +3104,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rife</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
-        </is>
-      </c>
+          <t>rift</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3138,11 +3118,19 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rift</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
+          <t>rile</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>vt. 刺激，惹怒： to make agitated and angry</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3152,17 +3140,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>rile</t>
+          <t>ripen</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vt. 刺激，惹怒： to make agitated and angry</t>
+          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
+          <t>Age ripens a good wine.  时间酿出好酒</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3174,17 +3162,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ripen</t>
+          <t>riot</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
+          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Age ripens a good wine.  时间酿出好酒</t>
+          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3196,17 +3184,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>riot</t>
+          <t>rite</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
+          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
+          <t>the marriage rites  婚礼仪式的章程</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3218,17 +3206,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rite</t>
+          <t>rive</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
+          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>the marriage rites  婚礼仪式的章程</t>
+          <t>Lightning rived the tree.   闪电把树劈裂了</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3240,17 +3228,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rive</t>
+          <t>riveting</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
+          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Lightning rived the tree.   闪电把树劈裂了</t>
+          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3262,17 +3250,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>riveting</t>
+          <t>rivulet</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
+          <t>n. 小河，小溪： a small stream</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
+          <t>Dream Rivulet Diary《梦溪笔谈》</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3284,17 +3272,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rivulet</t>
+          <t>robust</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. 小河，小溪： a small stream</t>
+          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dream Rivulet Diary《梦溪笔谈》</t>
+          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3306,44 +3294,44 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>robust</t>
+          <t>roil</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
-        <is>
-          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>roil</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 搅浑，使混乱： to stir up; disorder
 vt. 激怒： to displease or disturb</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>He roiled the brook with his wood stick.   他用他的木棍将溪水搅浑。
 Financial markets have beenroiled by the banking crisis.  银行业的危机搅乱了金融市场的秩序。
 Some of his roommate’s habits began to roil him.   他室友的某些习惯开始让他恼火。</t>
         </is>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>roisterer</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>n. 喝酒喧闹的人： one who engages in merrymaking especially in honor of a special occasion</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the rowdy roisterers who fill the streets of New Orleans during Mardi Gras  四旬斋前最后一天遍布新奥尔良各条街道的喧闹人群</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3353,17 +3341,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>roisterer</t>
+          <t>rookie</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>n. 喝酒喧闹的人： one who engages in merrymaking especially in honor of a special occasion</t>
+          <t>n. 新兵；新手；菜鸟： recruit; novice</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>the rowdy roisterers who fill the streets of New Orleans during Mardi Gras  四旬斋前最后一天遍布新奥尔良各条街道的喧闹人群</t>
+          <t>The rookie replaced the injured regular at first base.  这个新手代替了受伤的一垒手。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3375,17 +3363,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>rookie</t>
+          <t>roster</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>n. 新兵；新手；菜鸟： recruit; novice</t>
+          <t>n. 值勤表，花名册： a roll or list of personnel</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>The rookie replaced the injured regular at first base.  这个新手代替了受伤的一垒手。</t>
+          <t>the roster of subscribers to the journal  杂质订阅者名册</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3397,17 +3385,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>roster</t>
+          <t>rostrum</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>n. 值勤表，花名册： a roll or list of personnel</t>
+          <t>n. 讲坛，演讲坛： a stage for public speaking</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>the roster of subscribers to the journal  杂质订阅者名册</t>
+          <t>He finally stood on the winner's rostrum.   他终于站在了胜利者的领奖台上。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3419,17 +3407,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>rostrum</t>
+          <t>rouse</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>n. 讲坛，演讲坛： a stage for public speaking</t>
+          <t>v. 激起，煽动： to stir up
+v. 唤醒： to cause to stop sleeping</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>He finally stood on the winner's rostrum.   他终于站在了胜利者的领奖台上。</t>
+          <t>He was roused to fury.   他大为光火。
+The piercing siren roused her from a deep sleep  刺耳的警笛声将她从沉睡中唤醒。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3441,19 +3431,18 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rouse</t>
+          <t>royalty</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>v. 激起，煽动： to stir up
-v. 唤醒： to cause to stop sleeping</t>
+          <t>n. 皇家身份： regal character or bearing
+n. 版税： a payment to an author or composer for each copy of a work sold or to an inventor for eachitem sold under a patent</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>He was roused to fury.   他大为光火。
-The piercing siren roused her from a deep sleep  刺耳的警笛声将她从沉睡中唤醒。</t>
+          <t>charge KTV owners royalty fee  向 KTV  索取版权费</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3465,18 +3454,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>royalty</t>
+          <t>rubicund</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 皇家身份： regal character or bearing
-n. 版税： a payment to an author or composer for each copy of a work sold or to an inventor for eachitem sold under a patent</t>
+          <t>adj. 红润的，健康的： inclined to a healthy rosiness</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>charge KTV owners royalty fee  向 KTV  索取版权费</t>
+          <t>A rubicund complexion indicates good health.   红润的气色意味着健康的身体。</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3488,17 +3476,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>rubicund</t>
+          <t>rudimentary</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 红润的，健康的： inclined to a healthy rosiness</t>
+          <t>adj. 初始的，未发展的： being in the earliest stages of development
+adj. 最根本的，基础的： consisting in first principles: fundamental</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>A rubicund complexion indicates good health.   红润的气色意味着健康的身体。</t>
+          <t>The equipment of these past empire-builders was rudimentary.   过去这些帝国的建造者们使用的都是极其原始的工具。
+The dropout had only a rudimentary knowledge of science.   这个辍学的孩子对科学知识只有最基本的一些了解。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3510,19 +3500,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>rudimentary</t>
+          <t>rue</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>adj. 初始的，未发展的： being in the earliest stages of development
-adj. 最根本的，基础的： consisting in first principles: fundamental</t>
+          <t>n. 后悔，遗憾： the feeling of regret, remorse, or sorrow for</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The equipment of these past empire-builders was rudimentary.   过去这些帝国的建造者们使用的都是极其原始的工具。
-The dropout had only a rudimentary knowledge of science.   这个辍学的孩子对科学知识只有最基本的一些了解。</t>
+          <t>With rue my heart is laden.   我的内心充满了遗憾。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3534,44 +3522,44 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>rue</t>
+          <t>ruffle</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
-        <is>
-          <t>n. 后悔，遗憾： the feeling of regret, remorse, or sorrow for</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>With rue my heart is laden.   我的内心充满了遗憾。</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ruffle</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
         <is>
           <t>n. 皱褶，褶裥花边： a strip of fabric gathered or pleated on one edge
 vt. 使粗糙： to destroy the smoothness or evenness of
 vt. 扰乱，打扰：to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>The acid ruffled the surface of the catalyst.  酸使得催化剂的表面变得粗糙。
 The stream of minor complaints finally ruffled him into snapping, “If you don’t like the way I’m doing it, do ityourself!”一系列的抱怨终于让他爆发：“如果你不喜欢我做事的方法，你就自己去做！”</t>
         </is>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ruminate</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>vt. 沉思： to go over in the mind repeatedly and often casually or slowly</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ruminated the reason past failures  沉思以往失败的原因</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3581,17 +3569,19 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ruminate</t>
+          <t>rumple</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vt. 沉思： to go over in the mind repeatedly and often casually or slowly</t>
+          <t>vt. 使皱，弄皱： to wrinkle or form into folds or creases
+vt. 打乱，使不整齐： to undo the proper order or arrangement of</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ruminated the reason past failures  沉思以往失败的原因</t>
+          <t>The guest rumpled the antique bedspread by sitting on it.   客人坐在古董床单上把它弄皱了。
+The aunt would invariably rumple the little boy's hair whenever she came to visit.   不论小男孩的姨妈何</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3603,19 +3593,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>rumple</t>
+          <t>run</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vt. 使皱，弄皱： to wrinkle or form into folds or creases
-vt. 打乱，使不整齐： to undo the proper order or arrangement of</t>
+          <t>n. （不间断的）连续演出： an unbroken course of performances or showings</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>The guest rumpled the antique bedspread by sitting on it.   客人坐在古董床单上把它弄皱了。
-The aunt would invariably rumple the little boy's hair whenever she came to visit.   不论小男孩的姨妈何</t>
+          <t>The play had a long run.  此剧一口气演了很长时间</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3627,17 +3615,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>runic</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. （不间断的）连续演出： an unbroken course of performances or showings</t>
+          <t>adj. 神秘的： having some secret or mysterious meaning</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>The play had a long run.  此剧一口气演了很长时间</t>
+          <t>painstaking efforts to decipher the runic inscriptions  为破解神秘的碑文付出的辛勤劳动</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3649,17 +3637,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>runic</t>
+          <t>rupture</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>adj. 神秘的： having some secret or mysterious meaning</t>
+          <t>v. 打破；打碎： to part by violence</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>painstaking efforts to decipher the runic inscriptions  为破解神秘的碑文付出的辛勤劳动</t>
+          <t>Jealousy ruptured our friendly relationship.  嫉妒心破坏了我们的友谊。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3671,17 +3659,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rupture</t>
+          <t>ruse</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>v. 打破；打碎： to part by violence</t>
+          <t>n. 诡计： a wily subterfuge</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Jealousy ruptured our friendly relationship.  嫉妒心破坏了我们的友谊。</t>
+          <t>This was a ruse to divide them.   这是一招反间计。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3693,17 +3681,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ruse</t>
+          <t>rustic</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 诡计： a wily subterfuge</t>
+          <t>n. 乡下人，头脑简单的人： an awkward or simple person especially from a small town or the country
+adj. 乡村的：of, relating to, associated with, or typical of open areas with few buildings or people</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>This was a ruse to divide them.   这是一招反间计。</t>
+          <t>a rustic who was awed by the prices that city dwellers had to pay  一个被大城市房价所吓到的乡里人
+We went to a rustic area that is devoid of skyscrapers and shopping malls.  我们去了一个没有摩天大楼和购物中心的乡村原野。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3715,19 +3705,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rustic</t>
+          <t>rustle</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. 乡下人，头脑简单的人： an awkward or simple person especially from a small town or the country
-adj. 乡村的：of, relating to, associated with, or typical of open areas with few buildings or people</t>
+          <t>v. 快速地行动： to move or act energetically or with speed; to proceed or move quickly</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>a rustic who was awed by the prices that city dwellers had to pay  一个被大城市房价所吓到的乡里人
-We went to a rustic area that is devoid of skyscrapers and shopping malls.  我们去了一个没有摩天大楼和购物中心的乡村原野。</t>
+          <t>The little boy rustled around enthusiastically on the first morning of the trip.  旅行的第一个早晨，小男孩充满热情地在那活蹦乱跳。</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3739,44 +3727,46 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rustle</t>
+          <t>sabotage</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
-        <is>
-          <t>v. 快速地行动： to move or act energetically or with speed; to proceed or move quickly</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>The little boy rustled around enthusiastically on the first morning of the trip.  旅行的第一个早晨，小男孩充满热情地在那活蹦乱跳。</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>sabotage</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
         <is>
           <t>n. 妨害，破坏： treacherous action to defeat or hinder a cause or an endeavor; deliberate subversion
 vt. 从事破坏活动，阻止：to practice sabotage on</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>sabotage of the project by government officials  被政府官员阻止的项目
 He sabotaged his opponent's campaign with rumors.   他用谣言来破坏对手的竞选活动。
 My ex-wifedeliberately sabotages my access to the children.   我的前妻故意想方设法阻止我和我的孩子们见面。</t>
         </is>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>saccharine</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>adj. 像糖一样的，有甜味的： of, relating to, or resembling that of sugar
+adj. 做作的，矫情的： appealing to the emotions in an obvious and tiresome way</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>a powdery substance with a saccharine taste  有甜味的粉状物质
+The movie was funny, but it had a saccharine ending in which everyone lives happily ever after.   电 影 还是很有意思的，但是结局太做作了——所有人从此都幸福地生活在了一起。</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3786,19 +3776,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>saccharine</t>
+          <t>sacrilege</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 像糖一样的，有甜味的： of, relating to, or resembling that of sugar
-adj. 做作的，矫情的： appealing to the emotions in an obvious and tiresome way</t>
+          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a powdery substance with a saccharine taste  有甜味的粉状物质
-The movie was funny, but it had a saccharine ending in which everyone lives happily ever after.   电 影 还是很有意思的，但是结局太做作了——所有人从此都幸福地生活在了一起。</t>
+          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3810,17 +3798,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>sacrilege</t>
+          <t>saddle</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
+          <t>vt. 使某人负担： to load or burden</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
+          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3832,17 +3820,19 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>saddle</t>
+          <t>safeguard</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vt. 使某人负担： to load or burden</t>
+          <t>n. 保护措施： a technical contrivance to prevent accident
+v. 保护： to make safe: protect</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
+          <t>legal safeguards against fraud  防止欺诈的法律措施
+sheepdogs safeguard the flock from attacks by wolves  保护兽群免受狼群攻击的牧羊犬</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3854,19 +3844,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>safeguard</t>
+          <t>sage</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>n. 保护措施： a technical contrivance to prevent accident
-v. 保护： to make safe: protect</t>
+          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>legal safeguards against fraud  防止欺诈的法律措施
-sheepdogs safeguard the flock from attacks by wolves  保护兽群免受狼群攻击的牧羊犬</t>
+          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3878,17 +3866,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sage</t>
+          <t>salient</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
+          <t>adj. 显著的，最突出的： standing out conspicuously</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
+          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3900,42 +3888,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>salient</t>
+          <t>salubrious</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>adj. 显著的，最突出的： standing out conspicuously</t>
+          <t>adj. 有益健康的： favorable to or promoting health or well-being</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
+          <t>Every year I go to Kunming to enjoy its cool and salubrious climate.   每年我都会去昆明享受它那凉爽宜人的气候。</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>salubrious</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>adj. 有益健康的： favorable to or promoting health or well-being</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Every year I go to Kunming to enjoy its cool and salubrious climate.   每年我都会去昆明享受它那凉爽宜人的气候。</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_6.xlsx
+++ b/result/生词本导入模版_6.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,41 +434,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>reactionary</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reactionary rulers  保守的统治者</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ream</t>
+          <t>reactionary</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
+          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
+          <t>reactionary rulers  保守的统治者</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,42 +480,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ream</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>reap</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>v. 收割，收获： to collect (a crop or natural resource) or to receive as return for effort</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>As you sow, so shall you reap.   唯有付出，才有回报。
 She reaped large profits from her patents.   她的专利给她带来了丰厚的回报。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>reassure</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -513,65 +525,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>reassure</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vt. 使安心，打消疑虑： to restore to confidence</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>I tried to reassure her that the dog would come back home by nightfall.   我尽力让她安心，说夜幕降临之前小狗一定会回家的。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>rebuff</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>vt. 严词拒绝： to reject or criticize sharply</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>rebuffed an invitation from her colleagues  回绝了同事们的邀请
 She rebuffed him when he asked her fora date.   她拒绝了他约会的邀请。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>recalcitrant</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>adj. 顽抗的，不顺从的： marked by stubborn resistance to and defiance of authority or guidance</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>a recalcitrant teenager  执拗的少年
 The manager worried that the recalcitrant employee would try toundermine his authority.  经理担心那些不听命的员工会削弱它的权威。</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>recant</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>vt. 撤回，放弃，改变： to withdraw or repudiate (a statement or belief) formally and publicly</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -581,43 +593,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>recant</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>vt. 撤回，放弃，改变： to withdraw or repudiate (a statement or belief) formally and publicly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The man has refused after torture to recant his heresy.   这个人在受折磨后依旧拒绝放弃他的异教信仰。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>recessive</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>adj. （基因等）隐性的，由隐形基因控制的： of, relating to, or designating an allele that does notproduce a characteristic effect when present with a dominant allele
 adj. 内向的，内敛的： not comfortable around people</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a recessive disease  阴性基因控制的疾病
 For such a recessive genius, the most comfortable thing is working alone in his lab.  对 于 这 样 一 个 内向的天才而言，最舒服的事情就是一个人在实验室里干活。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>recidivate</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>vi. 回到原先的习惯，尤指重新犯罪： to return to a previous pattern of behavior, especially to return tocriminal habits</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>The suspect has recidivated for several times.   这个嫌犯是个惯犯了</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -627,43 +639,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>recidivate</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vi. 回到原先的习惯，尤指重新犯罪： to return to a previous pattern of behavior, especially to return tocriminal habits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The suspect has recidivated for several times.   这个嫌犯是个惯犯了</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>reciprocate</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vi. 往复运动： to move forward and backward alternately
 vt. 报答，回报： to return in kind or degree</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>According to Marx’s economic principle, the average price of a certain product should be reciprocatingover its value.  根据马克思的经济学理论，商品的平均价格应该在它的价值周边波动。
 reciprocated the favor by driving their neighbor to the airport  开车送邻居去机场以还人情</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>reckless</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>adj. 不考虑后果的，大胆鲁莽的： careless of consequences; foolishly adventurous or bold</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>His reckless driving accounted for the accident.  他鲁莽的开车行为导致了这场事故。</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -673,17 +685,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>recluse</t>
+          <t>reckless</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 隐士： a person who lives away from others</t>
+          <t>adj. 不考虑后果的，大胆鲁莽的： careless of consequences; foolishly adventurous or bold</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>He was sick of cities and crowds, so he decided to go live by himself in the woods as a recluse.   他 厌 倦了城市和拥挤的人群，因此他决定像隐士一样遁隐山林。</t>
+          <t>His reckless driving accounted for the accident.  他鲁莽的开车行为导致了这场事故。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -695,42 +707,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>recluse</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>n. 隐士： a person who lives away from others</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>He was sick of cities and crowds, so he decided to go live by himself in the woods as a recluse.   他 厌 倦了城市和拥挤的人群，因此他决定像隐士一样遁隐山林。</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>recoil</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>vi. 退却，畏缩： to shrink back, as under pressure or in fear or repugnance</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>recoil from the snake  因为害怕蛇而畏缩不前
 She recoiled from his touch.   她因害怕与他接触而退缩</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>reconcile</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -740,17 +752,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>recondite</t>
+          <t>reconcile</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
+          <t>vt. 使和解，协调： to restore to friendship or harmony</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
+          <t>Historians have never been able to reconcile the two eyewitness accounts of the battle.  历 史 学 家 们一直以来都无法协调这场战役两种记载之间的矛盾。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -762,17 +774,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>reconnoiter</t>
+          <t>recondite</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
+          <t>adj. 深奥的，难解的： difficult or impossible for one of ordinary understanding or knowledge tocomprehend</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
+          <t>I think Quantum Mechanics and Random Process arethe two most recondite courses in our curriculum thissemester.  我觉得量子力学和随机过程是这学期课表中最难的两门课程</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -784,42 +796,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>reconnoiter</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vt. 侦察，勘查： to make a preliminary inspection of, especially in order to gather military information</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The wide utilization of unmanned aerial vehicles makes it much less risky to reconnoiter a certain area.  </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>reconstitute</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>vt. 重建，（尤其是通过加水）使复原： to constitute again or anew; to restore to a former condition,especiallyby adding water</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>reconstitute dried coffee powder  冲咖啡
 Slowly Jewish communities ravaged by Nazi Germany werereconstituted and life began anew.  被纳粹德国摧残的犹太人社区慢慢得以重建，新的生活开始了。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>reconvene</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -829,17 +841,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rectitude</t>
+          <t>reconvene</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 正直： the quality or state of being straight; moral integrity</t>
+          <t>v. 重新集合，重新召集：to gather, call together, or summon again, especially for a formal meeting</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
+          <t>The leaders will reconvene tomorrow.  明天领导们会再次召开会议。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -851,17 +863,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>recumbent</t>
+          <t>rectitude</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
+          <t>n. 正直： the quality or state of being straight; moral integrity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lying recumbent on the floor  躺在地板上势</t>
+          <t>The principal encouraged the graduates to go on to live lives of rectitude.   校长鼓励毕业生们在今后的生活中做一个正直的人。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -873,17 +885,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>recuperate</t>
+          <t>recumbent</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
+          <t>adj. 躺着的： lying down, especially in a position of comfort or rest</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
+          <t>lying recumbent on the floor  躺在地板上势</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -895,17 +907,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>redolent</t>
+          <t>recuperate</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>adj. 芳香的： having or emitting fragrance</t>
+          <t>vi. 恢复（健康或力量），康复： to recover health or strength</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
+          <t>He is gradually recuperating from a serious back injury.   他正渐渐地从严重的背部损伤中恢复过来。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -917,17 +929,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>redoubtable</t>
+          <t>redolent</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor</t>
+          <t>adj. 芳香的： having or emitting fragrance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现</t>
+          <t>be redolent with the aroma of baking bread  充满了烤面包的香味</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -939,17 +951,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>redoubtable</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
+          <t>adj. 杰出的，值得尊敬的： worthy of respect or honor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
+          <t>a surprising discovery by one of the most redoubtable figures in Egyptian archaeology  埃 及 考 古 学 领 域最值得敬重的人物之一所做出的一个惊人发现</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -961,92 +973,92 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>redundant</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 多余的，冗余的： exceeding what is necessary or normal</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>This area is already chockablock with shopping malls; another one would be redundant.  这 个 地 区 已经是商场扎堆了，再建一个完全是多此一举。</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>reel</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>vi. 感到眩晕： to be in a confused state as if from being twirled around
 vi. 蹒跚地走路： to move forward while swaying from side to side</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>My head reeled with the facts and figures.  我的头脑被这些事实和数据给弄晕了。
 His mind reeledupon hearing the news that his employer had been indicted for fraud.  当他听到雇主因为欺诈而被起诉时，他顿觉天旋地转。
 The drunkard reeled down the alley.   醉汉蹒跚地沿着小巷走去</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>referee</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>n. 仲裁者；裁判员： a person who impartially decides or resolves a dispute or controversy
 vt. （就纠纷或争议）给出意见： to give an opinion about (something at issue or in dispute)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>served as the unofficial referee in disputes over the family business  作为一个非官方协调员，解决家庭事务中的纠纷
 Their father usually ends up refereeing any disputes concerning use of the big TV.   最后往往是他们的父亲决定该看什么电视频道，从而解决了相关争执。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>refine</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>vt. 提纯，精炼：to free (as metal, sugar, or oil) from impurities or unwanted material
 vt. 改善，改进： to improve or perfect by pruning or polishing</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Oil is refined so as to remove naturally occurring impurities.   原油通过精炼可去除其中天然存在的杂质。
 You’d better refine your backhand before the big tennis match if you want to throne.  如 果 你 想 获 得 冠军的话，你最好在网球大赛开赛前再提升一下反手的技术。</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>refractory</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>adj. 倔强的，不顺从的： resisting control or authority</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Refractory players will be ejected from the game.   不服从裁判命令的球员将会被驱逐出场。</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1056,17 +1068,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>refulgent</t>
+          <t>refractory</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 辉煌的，灿烂的： shining radiantly; resplendent</t>
+          <t>adj. 倔强的，不顺从的： resisting control or authority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Refulgent sunlight broke through the clouds, creating huge swaths of light in the valley below us.  耀眼的阳光穿透了云层，在我们脚下的峡谷中投下了一块巨大的光斑</t>
+          <t>Refractory players will be ejected from the game.   不服从裁判命令的球员将会被驱逐出场。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1078,68 +1090,68 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>refulgent</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>adj. 辉煌的，灿烂的： shining radiantly; resplendent</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Refulgent sunlight broke through the clouds, creating huge swaths of light in the valley below us.  耀眼的阳光穿透了云层，在我们脚下的峡谷中投下了一块巨大的光斑</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>refute</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vt. 否认： to declare not to be true
 vt. 证明为假，证伪： to prove wrong by argument or evidence: show to be false or erroneous</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>While the speak woman was publicly refuting rumors of a merger, behind the scenes the CEO was workingto effect that very outcome.  尽管女发言人一再公开否认合并的谣言，首席执行官却在幕后为这一目标而努力。
 The triumph of Chinese athlete Liu Xiang in the 2004 Olympics effectively refuted the views that Asians arephysically inferior to others.  中国运动员刘翔在 2004 年雅典奥运会上的胜利有效地驳斥了亚洲人在体格上不如其他人种的观点。</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>regenerate</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>vt. 使重获新生，使焕然一新： to bring back to life, practice, activity or a former condition of vigor
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>The lizard is able to regenerate its tail.  蜥 蜴 能 够 重 新 长 出 断 尾 。
 The whole community wasregenerated thanks to a government grant for repairing all the old buildings.   多亏了政府用于维修老楼的专项拨款，整个社区焕然一新。
 Every time he made a mistake, he would promise to regenerate.   每次犯错他都会保证洗心革面，下次不再犯。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>regimen</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>n. （政治上的）统治： lawful control over the affairs of a political unit (as a nation)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A new party will have regimen over the nation and, hopefully, bring some much-needed change.   一 个 新的政党将要上台，希望他们能带来一些迫切的改革。</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1149,68 +1161,68 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>regimen</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>n. （政治上的）统治： lawful control over the affairs of a political unit (as a nation)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A new party will have regimen over the nation and, hopefully, bring some much-needed change.   一 个 新的政党将要上台，希望他们能带来一些迫切的改革。</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>regress</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>vi. 后退： to go back; move backward
 vi. 退化，恶化： to become worse or of less value</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">To stand still is to regress.  不进则退。
 The annual celebration has regressed to the point where it's nothing more than an excuse to get drunk.  </t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>rehabilitate</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>vt. 使复原，使康复： to restore to a former state (as of efficiency, good management, or solvency) ora healthy condition
 vi./vt. （使）洗心革面： to make better in behavior or character</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>new policies in hopes of rehabilitating the national economy  被 指 望 能 振 兴 国 家 经 济 的 新 政 策
 Shedecided to undergo physical therapy to help rehabilitate her broken elbow.  她决定采取理疗来治疗受伤的手肘。
 an organization that rehabilitates criminals so they can reenter society  一个让罪犯洗心革面的机构，以便让他们能重返社会</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>rehearsal</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>n. 排练，彩排： the act of practicing in preparation for a public performance</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1220,89 +1232,89 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>rehearsal</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>n. 排练，彩排： the act of practicing in preparation for a public performance</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>We made a few mistakes in rehearsal, but we were pretty sure that we'd be OK on opening night.  彩排过程中我们犯了几个错误，但正式开幕式当晚我们有信心做得很好。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>reign</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>n. 统治权： the right or means to command or control others</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">A healthy nation should be governed by the reign of law and not by the will of its chief executive.   一 个 健康的国家应该是法制的，而非由最高领导人的意志统领。
 They accused him of carrying out a reign of terror.  </t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>rein</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>n. 抑制，限制： the act or practice of keeping something (as an activity) within certain boundaries
 vi. 抑制，控制： to keep from exceeding a desirable degree or level (as of expression)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The oversight committee called on the corporation to keep a much tighter rein on the activities of itscontractors.   监督委员会要求这个公司对其承包商的行为采取更为严格的管控。
 A good man knows how to rein in his temper.   君子知道如何按捺住火气。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>reiterate</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>v. 重申： to say or state again</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Let me reiterate our stance.   让我来重述我们的立场。
 I want to reiterate that under no circumstances areyou to leave the house.  我想再次重申：无论如何你都不能离开这间房子。</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>rejoice</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>vi. 欣喜，喜悦： to feel joy or great delight</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>We rejoiced over our unexpected victory on the soccer field.  我们为预料之外的足球胜利而感到欢喜。</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1312,17 +1324,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>rejoice</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vi. 故态复萌，再犯： to slip or fall back into a former worse state</t>
+          <t>vi. 欣喜，喜悦： to feel joy or great delight</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The patient wondered whether his illness would relapse.  病人想知道他的病会不会复发。</t>
+          <t>We rejoiced over our unexpected victory on the soccer field.  我们为预料之外的足球胜利而感到欢喜。</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1334,15 +1346,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>release</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vt. 排放： to throw or give off</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>vi. 故态复萌，再犯： to slip or fall back into a former worse state</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The patient wondered whether his illness would relapse.  病人想知道他的病会不会复发。</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1352,141 +1368,137 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>release</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>vt. 排放： to throw or give off</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>relentless</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>adj. 残酷的，无情的： showing or promising no abatement of severity, intensity, strength, or pace
 adj. 固执的，不肯妥协的： showing no signs of slackening or yielding in one's purpose</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>He was the most teacher enemy I have ever known.  他是我所知的最狠的老师。
 The team's offense was relentless in trying to score.  进攻球员毫不妥协地努力得分。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>relevant</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 有关系的，重要的： having a bearing on or connection with the matter at hand</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Make sure your answers during the interview are short and relevant.   确 保 你 在 面 试 时 的 回 答 简 短 而 恰当。
 You need to bring all the relevant certificates with you.   你需要携带所有的相关证明。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>n. 宗教，信仰： a body of beliefs and practices regarding the supernatural and the worship of one ormore deities
 n. （对于宗教信仰的）忠诚，虔诚： belief and trust in and loyalty to God</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">The Jewish religion has followers in many parts of the globe.  犹太教在全球范围内有大量信徒。
 Without his religion, he would not have been able to survive all the difficulties he has faced over the years.  </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>relinquish</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>vt. 放弃（职位、权力等）： to give up (as a position of authority) formally
 vt. 移交，交出： to give (something) over to the control or possession of another usually underduress</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>She relinquished his position to the company's vice president with very mixed feelings.   怀 着 十 分 复 杂 的情感，她放弃了公司副总裁的职位。
 The boy reluctantly relinquished the illegal fireworks to the police officer.   小男孩不情愿地把非法的焰火交给了警察。
 The court ordered him to relinquish custody of his child.   法庭要求他交出孩子的监护权。</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>relish</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>n. 喜好，偏好： an appetite for something; a strong appreciation or liking
 n. （愿望达成时的）高兴，满足感： the feeling experienced when one's wishes are met
 vt. 享受，喜欢： to take keen or zestful pleasure in</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>She has great relish for early morning walks, which she takes nearly every day.  她 对 早 晨散 步 有格 外的喜好——几乎每天早上她都会如此。
 He ate the bowl of ice cream with relish.   他高兴地吃着冰淇淋。
 He is so hungry that he will relish even plain food.   他是如此的饥饿，以至于普通的食物也能让他满意。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>reluctant</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>adj. 不情愿的，反感的： feeling or showing aversion, hesitation, or unwillingness</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>I'm reluctant to let him borrow my CDs since he never gives back anything I lend him.   我 很 不 愿 意 把 我的 CD  借给他，因为他借了我东西从来不还。</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1496,17 +1508,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>remiss</t>
+          <t>reluctant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 疏忽的，不留心的： exhibiting carelessness or slackness</t>
+          <t>adj. 不情愿的，反感的： feeling or showing aversion, hesitation, or unwillingness</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>I would be remiss if I didn't tell you how much I appreciated the lovely gift.   如果我不告诉你我是多么的喜欢这个可爱的礼物的话，那我就太疏忽大意了。</t>
+          <t>I'm reluctant to let him borrow my CDs since he never gives back anything I lend him.   我 很 不 愿 意 把 我的 CD  借给他，因为他借了我东西从来不还。</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1518,17 +1530,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>remodel</t>
+          <t>remiss</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vt. 改造，改变结构： to alter the structure of</t>
+          <t>adj. 疏忽的，不留心的： exhibiting carelessness or slackness</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>We decided to remodel the warehouse into a museum displaying the products of the company.   我 们 决定把仓库改造成展览我们公司产品的博物馆。</t>
+          <t>I would be remiss if I didn't tell you how much I appreciated the lovely gift.   如果我不告诉你我是多么的喜欢这个可爱的礼物的话，那我就太疏忽大意了。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1540,42 +1552,42 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>remodel</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>vt. 改造，改变结构： to alter the structure of</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>We decided to remodel the warehouse into a museum displaying the products of the company.   我 们 决定把仓库改造成展览我们公司产品的博物馆。</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>remonstrance</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>n. 抗议，抱怨： an expression of protest, complaint, or reproof, especially a formal statement ofgrievances</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>She seems deaf to her son’s remonstrances.   她似乎对儿子的抗议充耳不闻。
 Aggravated by the noisymetro construction, many residents wrote letters of remonstrance to city officials.   许多被地铁建设的噪音激怒的居民向市政府投去了抗议信。</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>remorse</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>n. 懊悔，悔恨： moral anguish arising from repentance for past misdeeds; bitter regret</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>He felt a deep remorse for having neglected his family over the years.  他为多年来忽略家人的行为表示懊悔。</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1585,17 +1597,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>remunerate</t>
+          <t>remorse</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 支付报酬或补偿： to pay an equivalent to for a service, loss, or expense</t>
+          <t>n. 懊悔，悔恨： moral anguish arising from repentance for past misdeeds; bitter regret</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>He promptly remunerated the repair company for fixing the satellite TV.   他迅速地支付了维修公司修卫星电视所应得的酬劳。</t>
+          <t>He felt a deep remorse for having neglected his family over the years.  他为多年来忽略家人的行为表示懊悔。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1607,42 +1619,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>remunerate</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>vt. 支付报酬或补偿： to pay an equivalent to for a service, loss, or expense</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>He promptly remunerated the repair company for fixing the satellite TV.   他迅速地支付了维修公司修卫星电视所应得的酬劳。</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>rend</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>vt. 撕裂，猛拉： to tear or split apart or into pieces violently</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Wolves rend a game to pieces.   狼群会把猎物撕成碎片。
 pain that rends the heart  撕心般的痛</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>renegade</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>n. 背教者，叛徒： one who rejects a religion, cause, allegiance, or group for another; a deserter</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A band of renegades who had deserted their infantry units were making their way to Mexico.  一 支 背叛了他们所属的步兵编队的士兵朝着墨西哥前进。</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1652,91 +1664,91 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>renegade</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>n. 背教者，叛徒： one who rejects a religion, cause, allegiance, or group for another; a deserter</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A band of renegades who had deserted their infantry units were making their way to Mexico.  一 支 背叛了他们所属的步兵编队的士兵朝着墨西哥前进。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>renounce</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. （正式地）放弃： to give up, refuse, or resign usually by formal declaration
 vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>renounce his nationality  退出国籍
 renounce the authority of the church  宣布与教廷彻底决裂</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>renovate</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>vt. 修复，维修： to restore to a former better state (as by cleaning, repairing, or rebuilding)
 vt. 使重获新生，使焕然一新：to bring back to life, practice, activity or a former condition of vigor</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>We will have to renovate the house extensively before we can move in.   在入住之前我们必须大规模翻修一下这栋房子。
 The church was renovated by a new ecumenical spirit.   新的宗教领袖的到来让教堂焕发新生。</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>repartee</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>n. 机智的回答： a quick witty response
 n. 打趣，善意的玩笑： good-natured teasing or exchanging of clever remarks</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>That repartee to the reporter's question drew laughs from the bystanders.   对记者问题的那个机智回答引来了旁观者的笑声。
 Repartee is harder to do with text messaging.   用短信开起玩笑来困难多了。</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>repatriate</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>vt. 遣返： to restore or return to the country of origin, allegiance, or citizenship</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>As soon as the war ends, the government will start to repatriate war refugees.   只要战争一结束，政府就会开始遣返战争难民。</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1746,69 +1758,69 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>repatriate</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>vt. 遣返： to restore or return to the country of origin, allegiance, or citizenship</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>As soon as the war ends, the government will start to repatriate war refugees.   只要战争一结束，政府就会开始遣返战争难民。</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>repeal</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>vt. 撤销，废除（法律等）： to rescind or annul by authoritative act
 vt. 宣布与…决裂： to refuse to follow, obey, or recognize any further</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>The company called the furniture store to repeal the order for six new desks.   公司要求家具店撤销六张新桌子的订单。
 In 1933, Congress passed the 21st Amendment which repealed the Prohibition Amendment of1919, thus making the sale, distribution, and use of alcohol legal once again.   1933 年，国会通过了《第二十一修正案》，该法案废除了于 1919 年制订的《禁酒法》，从而使得酒的买卖、配送和使用再次合法化。
 If I find that you have been lying about this, I'll instantly repeal every promise I made to you.   只 要 我 发 现在这个问题上你对我撒了谎，那我们之间的承诺就彻底断裂了。</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>repel</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 抵制： to fight against; resist
 vt. 使厌恶： to cause aversion in: disgust</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Self-discipline ensures that you can repel the things that induce you.   自律可以保证你抵制那些诱惑你的事物。
 I repelled the temptation to stay out late and call in sick the next day.  我抵住了晚上玩通宵然后第二天谎称生病的诱惑。
 Evil odors always repel me.   臭味总是让我恶心。</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>repertoire</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>n. （技术、设备或原料等的）详单： the complete list or supply of skills, devices, or ingredients usedin a particular field, occupation, or practice</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>The chef's repertoire of specialties seems to be limited, with several of the dishes appearing over and overagain in slightly varied guises.   这个厨师的所有拿手好戏看来是很有限的，因为上来的几盘菜看起来只是稍微换了一下装饰而已。</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1818,17 +1830,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>repine</t>
+          <t>repertoire</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vi. 抱怨，表达不满： to feel or express discontent or dejection</t>
+          <t>n. （技术、设备或原料等的）详单： the complete list or supply of skills, devices, or ingredients usedin a particular field, occupation, or practice</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>There is no use repining over a love that's been long lost.   抱怨早已失去的爱情是没有用的。</t>
+          <t>The chef's repertoire of specialties seems to be limited, with several of the dishes appearing over and overagain in slightly varied guises.   这个厨师的所有拿手好戏看来是很有限的，因为上来的几盘菜看起来只是稍微换了一下装饰而已。</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1840,34 +1852,56 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>repine</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>vi. 抱怨，表达不满： to feel or express discontent or dejection</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>There is no use repining over a love that's been long lost.   抱怨早已失去的爱情是没有用的。</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
           <t>replete</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>adj. 彻底吃饱了的： having one's appetite completely satisfied
 adj. 充满…的，富于…的： possessing or covered with great numbers or amounts of somethingspecified</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Everyone is completely replete after the huge meal.  在大餐之后，每个人都吃撑了。
 a scholar replete with knowledge  博学的学者</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>repose</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>n. （劳作后的）休息： a state of resting after exertion or strain
 n. 平静，宁静： a state of freedom from storm or disturbance
@@ -1875,7 +1909,7 @@
 vt. 放置，交给他人： to put (something) into the possession or safekeeping of another</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>The doctor ordered a period of repose for the patient suffering from insomnia.   医生要求正在饱受失眠折磨的病人好好休息一阵。
 We enjoyed the repose of a summer evening on a remote island.  我们在遥远的小岛上共享了夏日傍晚的片刻安宁。
@@ -1883,28 +1917,6 @@
 The Constitution reposes the power to declare war to Congress, and to that body alone.  宪 法 将 宣 战的权力交给了国会单独保管。</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>reprehend</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>vt. 谴责，责难，批评： to express one's unfavorable opinion of the worth or quality of</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Without exception, book reviewers reprehended the novel's trite plot.   毫无例外的，小说缺乏新意的故事情节收到了评论家们的责难。</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1914,43 +1926,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>reprehend</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>vt. 谴责，责难，批评： to express one's unfavorable opinion of the worth or quality of</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Without exception, book reviewers reprehended the novel's trite plot.   毫无例外的，小说缺乏新意的故事情节收到了评论家们的责难。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>repress</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vt. 镇压： to put down by force, usually before total control has been lost; quell
 vt. 阻止（正常的表达、活动或发展等）： to prevent the natural or normal expression, activity, ordevelopment of</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Military quickly repressed the rebellion in the city and restored order.   军方迅速平息了市内的暴乱，恢复了秩序。
 You can't repress your feelings forever, so tell her that you love her.   你不可能永远压抑自己的感受，所以大胆地跟她表白吧。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>reprieve</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>vt. 暂缓处刑，免罪： to postpone or cancel the punishment of</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Fourteen people, waiting to be hanged for the murder of a former prime minister, have been reprieved</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1960,34 +1972,56 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>reprieve</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>vt. 暂缓处刑，免罪： to postpone or cancel the punishment of</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fourteen people, waiting to be hanged for the murder of a former prime minister, have been reprieved</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>reproach</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>n. 令人羞愧的事物，耻辱： one that causes shame, rebuke or blame
 vt. 批评，责备： to express disapproval, criticism, or disappointment in (someone)</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>a reproach to this entire school  整个学校的耻辱
 reproached by their mother for untidiness  因为邋遢而被他们的母亲批评</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>reprobate</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>n. 堕落者，道德败坏的人：a morally unprincipled person
 adj. 堕落的，放荡的： morally corrupt
@@ -1995,7 +2029,7 @@
 vt. 拒绝，不提供： to be unwilling to grant</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>The program rehabilitates reprobates and turns them into hard-working, law-abiding citizens.  这 个 项目让那些堕落的人改过自新，并将他们变成勤劳守法的好公民。
 He is a reprobate judge who could be bribed, and often with astonishing ease.   他是一个堕落的法官，极其容易就被贿赂了。
@@ -2003,28 +2037,6 @@
 The government will most likely reprobate the request for parole.  政府很有可能会拒绝假释的要求。</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>reproof</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>n. 批评，反对： criticism for a fault, rebuke</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>The head teacher speaks in tones of gentle reproof.  校长的话语中带有隐晦的批评。</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2034,90 +2046,90 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>reproof</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>n. 批评，反对： criticism for a fault, rebuke</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The head teacher speaks in tones of gentle reproof.  校长的话语中带有隐晦的批评。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>reprove</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>vt. 温和地责备，警告： to scold or correct usually gently or with kindly intent
 vt. 不欣赏，不喜欢： to hold an unfavorable opinion of</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>My piano teacher often reproves me for slouching while playing, observing that good posture helps oneplay better.   我的钢琴老师常常会因为懒散的坐姿而批评我，他认为良好的坐姿能让我弹得更好。
 The older generation has always reproved the younger generation's taste in music.  老 一 代 的 人 总 是不喜欢新一代的音乐品味。</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>repudiate</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>vt. 否认： to declare not to be true
 vt. 拒绝接受： to show unwillingness to accept, do, engage in, or agree to</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>She repudiated the charge that she had lied on her résumé.   她否认了她在简历中作假的指控。</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>repugnant</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>adj. 令人厌恶的： arousing disgust or aversion
 adj. 不和谐的，不协调的： not being in agreement or harmony</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>The idea of moving again became repugnant to her.  又要搬家的想法让她感到厌恶。
 Technically speaking, it may not be a violation, but it is certainly repugnant to the spirit of the law.  技术上来说这还算不上违法，但是这肯定违背了法律的精神。</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>repulse</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>vt. （使）厌恶，排斥： to rebuff or reject with rudeness, coldness, or denial</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>The scenes of violence in the film may repulse some viewers.   电影中某些暴力场景可能会使观众反感。</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2127,17 +2139,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>repute</t>
+          <t>repulse</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>n. （尤指好的）名声，名誉： a good reputation</t>
+          <t>vt. （使）厌恶，排斥： to rebuff or reject with rudeness, coldness, or denial</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Before his national bestseller, he was a writer of little repute.  在他的畅销书出来之前，他是个没什么名声的作家。</t>
+          <t>The scenes of violence in the film may repulse some viewers.   电影中某些暴力场景可能会使观众反感。</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2149,17 +2161,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>requite</t>
+          <t>repute</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>vt. 酬谢，报答： to make repayment or return for</t>
+          <t>n. （尤指好的）名声，名誉： a good reputation</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>requited her love with hatred  恩将仇报</t>
+          <t>Before his national bestseller, he was a writer of little repute.  在他的畅销书出来之前，他是个没什么名声的作家。</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2171,43 +2183,43 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>requite</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>vt. 酬谢，报答： to make repayment or return for</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>requited her love with hatred  恩将仇报</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>requisite</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>n. 必需品： something necessary, indispensable, or unavoidable
 adj. 必不可少的，必备的： essential, necessary</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Calculus is a requisite for modern physics.  微积分是学习近代物理的必要知识。
 Oxygen is requisite for human to survive.   氧气是维持人类生命的必要条件。</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>rescind</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>vt. 废除，取消： to make void</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2217,17 +2229,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>reserved</t>
+          <t>rescind</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 内向的，缄默的： restrained in words and actions</t>
+          <t>vt. 废除，取消： to make void</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
+          <t>The government refused to rescind the order of curfew.   政府拒绝撤销宵禁的决定。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2239,17 +2251,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>residue</t>
+          <t>reserved</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
+          <t>adj. 内向的，缄默的： restrained in words and actions</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
+          <t>too reserved to offer a spontaneous criticism  过于缄默而不愿意发表真实的看法</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2261,17 +2273,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>resign</t>
+          <t>residue</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
+          <t>n. 剩余物： something that remains after a part is taken, separated, or designated</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>resigned her position at the university  自动放弃她在大学的职位</t>
+          <t>In the race of nature, there is no residue left for the late.  在大自然的竞争中，总是早起的鸟儿才有虫吃。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2283,15 +2295,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>resign</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>vt. 辞职，放弃（职位）： to give up one's job or office</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>resigned her position at the university  自动放弃她在大学的职位</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2301,19 +2317,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>resolute</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 坚定的： marked by firm determination</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
-        </is>
-      </c>
+          <t>n. 弹力： the property of a material that enables it to resume its original shape or position after beingbent, stretched, or compressed</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2323,17 +2335,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>resonant</t>
+          <t>resolute</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
+          <t>adj. 坚定的： marked by firm determination</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
+          <t>We are glad to have such a resolute ally.   我们很高兴能拥有这样一个坚定的盟友。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2345,17 +2357,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>resourceful</t>
+          <t>resonant</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
+          <t>adj. （声音）洪亮的，共鸣的： strong and deep in tone</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
+          <t>A deep resonant voice rang out.   传来了洪亮的声音。</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2367,38 +2379,42 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>resourceful</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adj. 有创造力的，机智的： able to act effectively or imaginatively, especially in difficult situations</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>a resourceful man capable of dealing with difficult situations  一个能巧妙解决困局的能人</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
           <t>respite</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>n. 间歇，休息： an interval of rest or relief</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>to toil without respite  埋头苦干
 In the middle of each semester there came a short respite.   在 每 个学期的期中，会有一个短暂的休假。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>respire</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>vi. 呼吸： to inhale and exhale air successively</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2408,19 +2424,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>resplendent</t>
+          <t>respire</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 华丽辉煌的： shining brilliantly</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Geography teacher showed us a picture of the resplendent aurora borealis.   地理老师给我们展示了一张壮丽的北极光的照片。</t>
-        </is>
-      </c>
+          <t>vi. 呼吸： to inhale and exhale air successively</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2430,17 +2442,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>responsive</t>
+          <t>resplendent</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>adj. 敏感的： quick to respond or react appropriately or sympathetically</t>
+          <t>adj. 华丽辉煌的： shining brilliantly</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Children are often the most responsive members of the audience.  儿童通常是观众中最为敏感的群体</t>
+          <t>Geography teacher showed us a picture of the resplendent aurora borealis.   地理老师给我们展示了一张壮丽的北极光的照片。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2452,43 +2464,43 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>responsive</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>adj. 敏感的： quick to respond or react appropriately or sympathetically</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Children are often the most responsive members of the audience.  儿童通常是观众中最为敏感的群体</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>restive</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>adj. 急躁的，忧虑的： marked by impatience or uneasiness
 adj. 难以管束的： stubbornly resisting control</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>I spent a restive night worrying about the next day's exam.   我度过了忧虑的一晚，担心明天的考试。
 Tired soldiers grew restive.   疲惫的士兵变得越来越难以管理。</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>restless</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2498,17 +2510,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>restrain</t>
+          <t>restless</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
+          <t>adj. 不平静的： marked by or causing a lack of quiet, repose, or rest</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
+          <t>The patient felt restless from pain.  病人因疼痛而无法平静。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2520,17 +2532,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>resurgence</t>
+          <t>restrain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
+          <t>vt. 限制，控制： to limit, restrict, or keep under control</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
+          <t>The old lady restrained the child from picking the flowers.   老妇人不准孩子们采摘花朵。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2542,17 +2554,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>resuscitate</t>
+          <t>resurgence</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
+          <t>n. 复兴： a restoration to use, acceptance, activity, or vigor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
+          <t>Let’s witness the resurgence of classical school.   让我们见证古典乐派的复兴。</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2564,17 +2576,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>retainer</t>
+          <t>resuscitate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 家仆： a person attached or owing service to a household</t>
+          <t>vt. 使复活，使苏醒： to restore consciousness, vigor, or life to</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
+          <t>resuscitated by the kiss of the prince  因王子的吻而苏醒</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2586,17 +2598,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>retaliate</t>
+          <t>retainer</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
+          <t>n. 家仆： a person attached or owing service to a household</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
+          <t>Knights are dressed for battle by their retainers.  骑士们在上战场之前是由他们的家仆帮助着装打扮的。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2608,17 +2620,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>retard</t>
+          <t>retaliate</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
+          <t>vt. 报复，反击： to pay back（as an injury）in kind</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
+          <t>We swear to retaliate for our losses.   我们发誓要以牙还牙。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2630,17 +2642,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>retinue</t>
+          <t>retard</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 随行人员： a group of retainers or attendants</t>
+          <t>vt. 减速，延迟： to cause to move or proceed slowly; delay or impede</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
+          <t>Language barriers retarded their negotiating progress.   语言障碍让谈判进程受阻。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2652,43 +2664,43 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>retinue</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>n. 随行人员： a group of retainers or attendants</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The premier inspected the factory with his retinue.   总理与随同人员一起视察了工厂。</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
           <t>reticent</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>adj. 沉默不语的： inclined to be silent or uncommunicative in speech
 adj. 不愿意的： slow to begin or proceed with a course of action because of doubts or uncertainty</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>He was reticent about his plans.   他对他的计划三缄其口。
 Understandably, she's reticent about becoming involved with another religious sect.  不难理解，她不愿意被牵扯另一个宗教派别之中。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>retort</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2698,17 +2710,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>retouch</t>
+          <t>retort</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
+          <t>n. （尤指机智的）回应，回答： something spoken or written in reaction especially to a question,especially a quick, witty, or cutting reply</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
+          <t xml:space="preserve">She responded to the heckler with a scathing but hilarious retort that instantly won over the audience.  </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2720,17 +2732,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>retract</t>
+          <t>retouch</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vt. 收回，否认： to take back</t>
+          <t>v. 润饰，改进： to improve or change (a photographic negative or print)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
+          <t>She was retouching her painting before the deadline.   在截止日期到来之前，她一直在润色她的画作。</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2742,17 +2754,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>retrench</t>
+          <t>retract</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vi. 削减开支： to curtail expenses</t>
+          <t>vt. 收回，否认： to take back</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
+          <t>The newspaper had to retract its allegations against the mayor.   报纸不得不收回针对市长的谣言。</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2764,17 +2776,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>retribution</t>
+          <t>retrench</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
+          <t>vi. 削减开支： to curtail expenses</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
+          <t>Declining business forced the company to retrench.  衰减的业务迫使公司削减开支。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2786,43 +2798,43 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>retribution</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>n. 报偿，报应： the dispensing or receiving of reward or punishment especially in the hereafter</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>The neighborhood is being torn apart by an endless cycle of gang violence and retribution.   这 个 社 区 正在被帮派间斗争和仇恨的恶性循环割裂。</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>retrograde</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>adj. 倒退的： moving or tending backward
 v. 退步，退化： to decline to a worse condition</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>This is a retrograde step and you will regret it.   这是后退的一步，你以后肯定会后悔的。
 The Dark Ages is the period following the fall of the Roman Empire when Western civilization seriouslyretrograded.   “黑暗时代”指的是罗马帝国崩溃之后，西方文明严重退步的一个历史时期。</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>retrospective</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>adj. 回顾的： looking back on, contemplating, or directed to the past</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>a retrospective glance at my youth  朝我少年时代投去的回顾性一瞥</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2832,17 +2844,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>revelry</t>
+          <t>retrospective</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>n. 狂欢，喧闹的作乐： noisy partying or merrymaking</t>
+          <t>adj. 回顾的： looking back on, contemplating, or directed to the past</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>They were exhausted after the night of revelry.  一夜狂欢后大家都筋疲力尽</t>
+          <t>a retrospective glance at my youth  朝我少年时代投去的回顾性一瞥</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2854,115 +2866,115 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>revelry</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>n. 狂欢，喧闹的作乐： noisy partying or merrymaking</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>They were exhausted after the night of revelry.  一夜狂欢后大家都筋疲力尽</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>revenge</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>n. 报复，复仇： an act or instance of retaliating in order to get even
 vt. 复仇： to avenge (as oneself) usually by retaliating in kind or degree</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Both sides were determined to get revenge for losses and showed little interest in ending the feud.   双方都下定决心要为失去的东西报仇，对于结束他们之间的世仇毫无兴趣。
 The bombing was in revenge for theassassination of their leader.  此次轰炸是对暗杀他们领袖的报复行动。
 He finally revenged the death of his brother.   他终于为兄弟的死报了仇。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>revere</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>vt. （尤指对神的）尊崇，尊敬： to offer honor or respect to (someone) as a divine power</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>He is revered for his valor.   他 因 为 他 的 英 勇 而 受 到 尊 敬 。
 In some cultures people revere theirancestors, even leaving food offerings for them.   在一些文化当中，人们非常敬重先人，甚至将一些食物留下来供他们享用。</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>revise</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>vt. 更改，修正： to look over again in order to correct or improve</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>There are many problems involved in revising a dictionary.   修正字典会牵涉到诸多问题。
 With the snow,we'll need to revise our travel plans.   因为下雪了，我们不得不更改旅游计划。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>revive</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>vi. 恢复意识： to return to consciousness or life, become flourishing again
 v. 再获新生： become active or flourishing again</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>successfully revived him with artificial respiration  用人工呼吸使成功他恢复意识
 Around midnight, I usually need to revive myself with a cup of strong coffee.   在午夜时分，我需要一杯浓咖啡来提神。
 The success of the movie has revived her career.   这部电影的成功让他的事业焕发第二春。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>revoke</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>vt. 撤回，宣告无效： to annul by recalling or taking back</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>to revoke a will  废除遗嘱</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2972,43 +2984,43 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>vt. 撤回，宣告无效： to annul by recalling or taking back</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>to revoke a will  废除遗嘱</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>revolt</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. 使厌恶，反感： to fill with disgust or abhorrence
 vi. 反叛： to renounce allegiance or subjection (as to a government)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>The smell of seafood revolts him.  他对海鲜的腥味十分反感。
 The revolted against the dictator by burning his palace.   他们通过焚烧宫殿来对抗独裁者。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>ribald</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>adj. 举止、言语下流粗俗的： characterized by or indulging in vulgar, lewd humor</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>entertained the guests with ribald jokes  用荤段子来取悦客人</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3018,17 +3030,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>rickety</t>
+          <t>ribald</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 不稳的： lacking stability or firmness</t>
+          <t>adj. 举止、言语下流粗俗的： characterized by or indulging in vulgar, lewd humor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>The rickety coalition may break at any moment.   脆弱的联盟随时都可能破裂。</t>
+          <t>entertained the guests with ribald jokes  用荤段子来取悦客人</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3040,61 +3052,61 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
+          <t>rickety</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>adj. 不稳的： lacking stability or firmness</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>The rickety coalition may break at any moment.   脆弱的联盟随时都可能破裂。</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>rider</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 骑马的人： one that rides
 n. 附件： a clause appended to a legislative bill to secure a usually distinct object</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>ridicule</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>vt. 嘲笑： to make fun of</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>always ridiculed everything she said  总是嘲笑她说的话
 The term “big bang theory” was originallycoined to ridicule the belief that the universe was created by a giant explosion.  “大爆炸理论”期初是为了嘲笑一种观点而创造的，这种观点认为宇宙源自一场巨大的爆炸。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>rife</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3104,11 +3116,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rift</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
+          <t>rife</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>adj. 丰富的，普遍的： possessing or covered with great numbers or amounts of something specified</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>a video game rife with violence and abuse  充满暴力与虐待的电子游戏</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3118,19 +3138,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rile</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>vt. 刺激，惹怒： to make agitated and angry</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
-        </is>
-      </c>
+          <t>rift</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3140,17 +3152,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ripen</t>
+          <t>rile</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
+          <t>vt. 刺激，惹怒： to make agitated and angry</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Age ripens a good wine.  时间酿出好酒</t>
+          <t>The new work schedules riled the employees.   新的工作时间表激怒了员工</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3162,17 +3174,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>riot</t>
+          <t>ripen</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
+          <t>v. 使成熟，成熟： to make or become ripe or riper</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
+          <t>Age ripens a good wine.  时间酿出好酒</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3184,17 +3196,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>rite</t>
+          <t>riot</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
+          <t>n. 喧闹，暴乱： public violence, tumult, or disorder</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>the marriage rites  婚礼仪式的章程</t>
+          <t>Special police units equipped with riot shields quickly arrived at the airport.  装备有防暴盾牌的特警们迅速抵达了飞机场。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3206,17 +3218,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rive</t>
+          <t>rite</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
+          <t>n. 惯例，仪式： a prescribed form or manner governing the words or actions for a ceremony</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lightning rived the tree.   闪电把树劈裂了</t>
+          <t>the marriage rites  婚礼仪式的章程</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3228,17 +3240,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>riveting</t>
+          <t>rive</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
+          <t>vt. 撕开： to wrench open or tear apart or to pieces</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
+          <t>Lightning rived the tree.   闪电把树劈裂了</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3250,17 +3262,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>rivulet</t>
+          <t>riveting</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>n. 小河，小溪： a small stream</t>
+          <t>adj. 吸引人的，极迷人的： wholly absorbing or engrossing one's attention</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Dream Rivulet Diary《梦溪笔谈》</t>
+          <t>The riveting novel has, as previously expected, become a national best-seller.   正如先前所预料的，这本引人入胜的小说成为了畅销书</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3272,17 +3284,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>robust</t>
+          <t>rivulet</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
+          <t>n. 小河，小溪： a small stream</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
+          <t>Dream Rivulet Diary《梦溪笔谈》</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3294,44 +3306,44 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>robust</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>adj. 精力充沛的，强壮的，健康的： full of health and strength</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>a robust older man who still bicycles 10 miles a day  一个每天骑行 10 英里的充满活力的老人</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>roil</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>vt. 搅浑，使混乱： to stir up; disorder
 vt. 激怒： to displease or disturb</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>He roiled the brook with his wood stick.   他用他的木棍将溪水搅浑。
 Financial markets have beenroiled by the banking crisis.  银行业的危机搅乱了金融市场的秩序。
 Some of his roommate’s habits began to roil him.   他室友的某些习惯开始让他恼火。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>roisterer</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>n. 喝酒喧闹的人： one who engages in merrymaking especially in honor of a special occasion</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>the rowdy roisterers who fill the streets of New Orleans during Mardi Gras  四旬斋前最后一天遍布新奥尔良各条街道的喧闹人群</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3341,17 +3353,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rookie</t>
+          <t>roisterer</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>n. 新兵；新手；菜鸟： recruit; novice</t>
+          <t>n. 喝酒喧闹的人： one who engages in merrymaking especially in honor of a special occasion</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>The rookie replaced the injured regular at first base.  这个新手代替了受伤的一垒手。</t>
+          <t>the rowdy roisterers who fill the streets of New Orleans during Mardi Gras  四旬斋前最后一天遍布新奥尔良各条街道的喧闹人群</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3363,17 +3375,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>roster</t>
+          <t>rookie</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>n. 值勤表，花名册： a roll or list of personnel</t>
+          <t>n. 新兵；新手；菜鸟： recruit; novice</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>the roster of subscribers to the journal  杂质订阅者名册</t>
+          <t>The rookie replaced the injured regular at first base.  这个新手代替了受伤的一垒手。</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3385,17 +3397,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>rostrum</t>
+          <t>roster</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>n. 讲坛，演讲坛： a stage for public speaking</t>
+          <t>n. 值勤表，花名册： a roll or list of personnel</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>He finally stood on the winner's rostrum.   他终于站在了胜利者的领奖台上。</t>
+          <t>the roster of subscribers to the journal  杂质订阅者名册</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3407,64 +3419,64 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>rostrum</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>n. 讲坛，演讲坛： a stage for public speaking</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>He finally stood on the winner's rostrum.   他终于站在了胜利者的领奖台上。</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>rouse</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>v. 激起，煽动： to stir up
 v. 唤醒： to cause to stop sleeping</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>He was roused to fury.   他大为光火。
 The piercing siren roused her from a deep sleep  刺耳的警笛声将她从沉睡中唤醒。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>royalty</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>n. 皇家身份： regal character or bearing
 n. 版税： a payment to an author or composer for each copy of a work sold or to an inventor for eachitem sold under a patent</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>charge KTV owners royalty fee  向 KTV  索取版权费</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>rubicund</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>adj. 红润的，健康的： inclined to a healthy rosiness</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>A rubicund complexion indicates good health.   红润的气色意味着健康的身体。</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3476,43 +3488,43 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
+          <t>rubicund</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>adj. 红润的，健康的： inclined to a healthy rosiness</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A rubicund complexion indicates good health.   红润的气色意味着健康的身体。</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
           <t>rudimentary</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>adj. 初始的，未发展的： being in the earliest stages of development
 adj. 最根本的，基础的： consisting in first principles: fundamental</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>The equipment of these past empire-builders was rudimentary.   过去这些帝国的建造者们使用的都是极其原始的工具。
 The dropout had only a rudimentary knowledge of science.   这个辍学的孩子对科学知识只有最基本的一些了解。</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>rue</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>n. 后悔，遗憾： the feeling of regret, remorse, or sorrow for</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>With rue my heart is laden.   我的内心充满了遗憾。</t>
-        </is>
-      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3522,44 +3534,44 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
+          <t>rue</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>n. 后悔，遗憾： the feeling of regret, remorse, or sorrow for</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>With rue my heart is laden.   我的内心充满了遗憾。</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
           <t>ruffle</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>n. 皱褶，褶裥花边： a strip of fabric gathered or pleated on one edge
 vt. 使粗糙： to destroy the smoothness or evenness of
 vt. 扰乱，打扰：to disturb the peace of mind of (someone) especially by repeated disagreeable acts</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>The acid ruffled the surface of the catalyst.  酸使得催化剂的表面变得粗糙。
 The stream of minor complaints finally ruffled him into snapping, “If you don’t like the way I’m doing it, do ityourself!”一系列的抱怨终于让他爆发：“如果你不喜欢我做事的方法，你就自己去做！”</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ruminate</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>vt. 沉思： to go over in the mind repeatedly and often casually or slowly</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>ruminated the reason past failures  沉思以往失败的原因</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3569,43 +3581,43 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>ruminate</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>vt. 沉思： to go over in the mind repeatedly and often casually or slowly</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ruminated the reason past failures  沉思以往失败的原因</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>rumple</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>vt. 使皱，弄皱： to wrinkle or form into folds or creases
 vt. 打乱，使不整齐： to undo the proper order or arrangement of</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>The guest rumpled the antique bedspread by sitting on it.   客人坐在古董床单上把它弄皱了。
 The aunt would invariably rumple the little boy's hair whenever she came to visit.   不论小男孩的姨妈何</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>n. （不间断的）连续演出： an unbroken course of performances or showings</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>The play had a long run.  此剧一口气演了很长时间</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3615,17 +3627,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>runic</t>
+          <t>run</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>adj. 神秘的： having some secret or mysterious meaning</t>
+          <t>n. （不间断的）连续演出： an unbroken course of performances or showings</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>painstaking efforts to decipher the runic inscriptions  为破解神秘的碑文付出的辛勤劳动</t>
+          <t>The play had a long run.  此剧一口气演了很长时间</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3637,17 +3649,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>rupture</t>
+          <t>runic</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>v. 打破；打碎： to part by violence</t>
+          <t>adj. 神秘的： having some secret or mysterious meaning</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Jealousy ruptured our friendly relationship.  嫉妒心破坏了我们的友谊。</t>
+          <t>painstaking efforts to decipher the runic inscriptions  为破解神秘的碑文付出的辛勤劳动</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3659,17 +3671,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ruse</t>
+          <t>rupture</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>n. 诡计： a wily subterfuge</t>
+          <t>v. 打破；打碎： to part by violence</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>This was a ruse to divide them.   这是一招反间计。</t>
+          <t>Jealousy ruptured our friendly relationship.  嫉妒心破坏了我们的友谊。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3681,43 +3693,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>ruse</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>n. 诡计： a wily subterfuge</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>This was a ruse to divide them.   这是一招反间计。</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>rustic</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>n. 乡下人，头脑简单的人： an awkward or simple person especially from a small town or the country
 adj. 乡村的：of, relating to, associated with, or typical of open areas with few buildings or people</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>a rustic who was awed by the prices that city dwellers had to pay  一个被大城市房价所吓到的乡里人
 We went to a rustic area that is devoid of skyscrapers and shopping malls.  我们去了一个没有摩天大楼和购物中心的乡村原野。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>rustle</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>v. 快速地行动： to move or act energetically or with speed; to proceed or move quickly</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>The little boy rustled around enthusiastically on the first morning of the trip.  旅行的第一个早晨，小男孩充满热情地在那活蹦乱跳。</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3727,68 +3739,68 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>rustle</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>v. 快速地行动： to move or act energetically or with speed; to proceed or move quickly</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>The little boy rustled around enthusiastically on the first morning of the trip.  旅行的第一个早晨，小男孩充满热情地在那活蹦乱跳。</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
           <t>sabotage</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>n. 妨害，破坏： treacherous action to defeat or hinder a cause or an endeavor; deliberate subversion
 vt. 从事破坏活动，阻止：to practice sabotage on</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>sabotage of the project by government officials  被政府官员阻止的项目
 He sabotaged his opponent's campaign with rumors.   他用谣言来破坏对手的竞选活动。
 My ex-wifedeliberately sabotages my access to the children.   我的前妻故意想方设法阻止我和我的孩子们见面。</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>saccharine</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 像糖一样的，有甜味的： of, relating to, or resembling that of sugar
 adj. 做作的，矫情的： appealing to the emotions in an obvious and tiresome way</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>a powdery substance with a saccharine taste  有甜味的粉状物质
 The movie was funny, but it had a saccharine ending in which everyone lives happily ever after.   电 影 还是很有意思的，但是结局太做作了——所有人从此都幸福地生活在了一起。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>sacrilege</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3798,17 +3810,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>saddle</t>
+          <t>sacrilege</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>vt. 使某人负担： to load or burden</t>
+          <t>n. 亵渎圣物： desecration, profanation, misuse, or theft of something sacred</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
+          <t>To play Mozart's music on a kazoo is sacrilege.  用小木笛演奏莫扎特的音乐是对它的一种亵渎。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3820,43 +3832,43 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>saddle</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>vt. 使某人负担： to load or burden</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>He has saddled himself with a houseful of impecunious relatives.  一屋子的穷亲戚成了他的负担</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>safeguard</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>n. 保护措施： a technical contrivance to prevent accident
 v. 保护： to make safe: protect</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>legal safeguards against fraud  防止欺诈的法律措施
 sheepdogs safeguard the flock from attacks by wolves  保护兽群免受狼群攻击的牧羊犬</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>sage</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3866,17 +3878,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>salient</t>
+          <t>sage</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 显著的，最突出的： standing out conspicuously</t>
+          <t>n. 智者： one (as a profound philosopher) distinguished for wisdom</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
+          <t>The young prince made a pilgrimage to the sage, hoping to learn the meaning of life.   年 轻 的 王 子 走 上了向智者取经的道路，希望能领悟到生命的真谛。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3888,20 +3900,42 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>salient</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>adj. 显著的，最突出的： standing out conspicuously</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>The most salient feature of the book is its papyrus cover.  该书最明显的特点就是莎草纸的封面。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>salubrious</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>adj. 有益健康的： favorable to or promoting health or well-being</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Every year I go to Kunming to enjoy its cool and salubrious climate.   每年我都会去昆明享受它那凉爽宜人的气候。</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
